--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3055479-6CFF-430A-868E-EC8CB552FD3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125316A-3A80-4FB7-92F6-BAA5FF5D0543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="消息模板" sheetId="4" r:id="rId2"/>
     <sheet name="发送配置" sheetId="7" r:id="rId3"/>
+    <sheet name="邮箱服务配置" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="156">
   <si>
     <r>
       <rPr>
@@ -2123,17 +2124,503 @@
     <t>tenant_id</t>
   </si>
   <si>
-    <t>发送配置(短信)</t>
-  </si>
-  <si>
-    <t>发送配置(其它)</t>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EVOPS.PIPELINE_API_TEST_WARNING.WEB</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choerodon流水线-API测试告警</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
+                        &lt;table&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
+                              &lt;table&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
+                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
+                                &lt;p style="font-size: 14px;
+    color: #252528;
+    letter-spacing: 0;
+    display: inline-block;
+    text-align: right;
+    width: 558px;
+    padding-top: 55px;"&gt;&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
+                        &lt;div style=""&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;您好，项目【${projectName}】，流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;/p&gt;
+&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+          查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                              &lt;/td&gt;&lt;td&gt;
+                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 12px;
+      color: #626774;
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                        &lt;p style="opacity: 0.8;
+      font-size: 10px;
+      color: #FFFFFF;
+      text-align: center;
+      display: inline-block;
+      line-height: 34px;
+      width: 100%;
+      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVOPS.PIPELINE_API_TEST_WARNING.EMAIL</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。查看详情</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-2</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>pipelineName</t>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>taskName</t>
+  </si>
+  <si>
+    <t>successRate</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>PIPELINE_API_TEST_WARNING</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>subcategory_code</t>
+  </si>
+  <si>
+    <t>receive_config_flag</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>STREAM-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <r>
+      <t>hmsg_template_server_line-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>邮箱服务</t>
+  </si>
+  <si>
+    <t>hmsg_email_server</t>
+  </si>
+  <si>
+    <t>*server_id</t>
+  </si>
+  <si>
+    <t>#server_code</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>try_times</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password_encrypted</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>filter_strategy</t>
+  </si>
+  <si>
+    <t>hmsg_email_server-9</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>平台默认邮箱设置</t>
+  </si>
+  <si>
+    <t>smtp.164.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>邮箱服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_email_property</t>
+  </si>
+  <si>
+    <t>*property_id</t>
+  </si>
+  <si>
+    <t>#server_id</t>
+  </si>
+  <si>
+    <t>#property_code</t>
+  </si>
+  <si>
+    <t>property_value</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <r>
+      <t>notify_message_setting_config-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hmsg_template_server_line-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>hmsg_template_server-1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="60">
+  <fonts count="50">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2141,94 +2628,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2240,12 +2644,89 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -2446,60 +2927,6 @@
     <font>
       <sz val="11"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2640,9 +3067,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2652,32 +3079,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2687,16 +3114,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2707,15 +3132,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2726,26 +3142,80 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3119,11 +3589,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3132,21 +3602,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="71" t="s">
+      <c r="D3" s="70"/>
+      <c r="E3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3257,11 +3727,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="73" t="s">
+      <c r="C19" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3299,19 +3769,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="69"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="69"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3328,7 +3798,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -3336,169 +3806,466 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:K15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="4" width="8.88671875" style="54"/>
+    <col min="5" max="5" width="23.88671875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="42.109375" style="54" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="54" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="54" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="54" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="54" customWidth="1"/>
+    <col min="11" max="11" width="25.21875" style="54" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="54" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" style="54" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="54"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="53" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="57" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" t="s">
+      <c r="A7" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="44" t="s">
+      <c r="N7" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" s="54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+    <row r="8" spans="1:17" ht="16.5" customHeight="1">
+      <c r="D8" s="58"/>
+      <c r="E8" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="54">
+        <v>1</v>
+      </c>
+      <c r="P8" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+      <c r="E9" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" s="54">
+        <v>1</v>
+      </c>
+      <c r="P9" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D11" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E11" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F11" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G11" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H11" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I11" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J11" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K11" s="54" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="12" spans="1:17">
+      <c r="E12" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="54" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="E13" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="54" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="54">
+        <v>0</v>
+      </c>
+      <c r="K13" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="E14" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="54" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G14" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="54">
+        <v>0</v>
+      </c>
+      <c r="K14" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="E15" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="54" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" s="54">
+        <v>0</v>
+      </c>
+      <c r="K15" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="E16" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="54" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="54">
+        <v>0</v>
+      </c>
+      <c r="K16" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11">
+      <c r="E17" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="54" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="54">
+        <v>0</v>
+      </c>
+      <c r="K17" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="54" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="54">
+        <v>0</v>
+      </c>
+      <c r="K18" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="E19" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="54" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="54">
+        <v>0</v>
+      </c>
+      <c r="K19" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="E20" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="54" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="54">
+        <v>0</v>
+      </c>
+      <c r="K20" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11">
+      <c r="E21" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="54" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="J21" s="54">
+        <v>0</v>
+      </c>
+      <c r="K21" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="E22" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="54" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="54">
+        <v>0</v>
+      </c>
+      <c r="K22" s="54">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="E4" s="38" t="s">
+    <row r="4" spans="1:15">
+      <c r="E4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3508,19 +4275,19 @@
       <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="42" t="s">
         <v>80</v>
       </c>
       <c r="I7" t="s">
@@ -3532,123 +4299,366 @@
       <c r="K7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+      <c r="L7" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="N7" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20.25" customHeight="1">
+      <c r="E8" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="54">
+        <v>1</v>
+      </c>
+      <c r="L8" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="48">
+        <v>1</v>
+      </c>
+      <c r="O8" s="54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20.25" customHeight="1">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D10" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E10" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F10" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G10" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I10" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J10" t="s">
         <v>89</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>90</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+    <row r="11" spans="1:15">
+      <c r="D11" s="43"/>
+      <c r="E11" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="45" t="str">
+        <f>E8</f>
+        <v>hmsg_template_server-1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="47"/>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="E12" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="str">
+        <f>E8</f>
+        <v>hmsg_template_server-1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="str">
+        <f>邮箱服务配置!E8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCBCD8B-C016-4411-8D31-9F71F55B8AC3}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
+  <cols>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="E4" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" t="s">
         <v>51</v>
       </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" t="s">
-        <v>91</v>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" t="s">
+        <v>131</v>
+      </c>
+      <c r="N7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" t="s">
+        <v>140</v>
+      </c>
+      <c r="N8" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E125316A-3A80-4FB7-92F6-BAA5FF5D0543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF44949-08FF-479D-BA3B-8F731A5AC265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2398,9 +2398,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。查看详情</t>
-  </si>
-  <si>
     <t>hmsg_message_template-2</t>
   </si>
   <si>
@@ -2613,6 +2610,10 @@
   </si>
   <si>
     <t>hmsg_template_server-1</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;br/&gt;&lt;a href=${link} target=_blank&gt;查看详情&lt;/a &gt;</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3808,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -3920,7 +3921,7 @@
         <v>93</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>95</v>
@@ -3940,7 +3941,7 @@
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="E9" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F9" s="63" t="s">
         <v>99</v>
@@ -3952,7 +3953,7 @@
         <v>93</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="J9" s="54" t="s">
         <v>95</v>
@@ -3974,7 +3975,6 @@
       <c r="F10" s="63"/>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="54" t="s">
@@ -4013,32 +4013,32 @@
     </row>
     <row r="12" spans="1:17">
       <c r="E12" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="54" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="E13" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="54" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J13" s="54">
         <v>0</v>
@@ -4049,14 +4049,14 @@
     </row>
     <row r="14" spans="1:17">
       <c r="E14" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="54" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G14" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="54">
         <v>0</v>
@@ -4067,14 +4067,14 @@
     </row>
     <row r="15" spans="1:17">
       <c r="E15" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F15" s="54" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J15" s="54">
         <v>0</v>
@@ -4085,14 +4085,14 @@
     </row>
     <row r="16" spans="1:17">
       <c r="E16" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F16" s="54" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" s="54">
         <v>0</v>
@@ -4103,14 +4103,14 @@
     </row>
     <row r="17" spans="5:11">
       <c r="E17" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F17" s="54" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J17" s="54">
         <v>0</v>
@@ -4121,14 +4121,14 @@
     </row>
     <row r="18" spans="5:11">
       <c r="E18" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="54" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J18" s="54">
         <v>0</v>
@@ -4139,14 +4139,14 @@
     </row>
     <row r="19" spans="5:11">
       <c r="E19" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="54" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="54">
         <v>0</v>
@@ -4157,14 +4157,14 @@
     </row>
     <row r="20" spans="5:11">
       <c r="E20" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F20" s="54" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J20" s="54">
         <v>0</v>
@@ -4175,14 +4175,14 @@
     </row>
     <row r="21" spans="5:11">
       <c r="E21" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F21" s="54" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J21" s="54">
         <v>0</v>
@@ -4193,14 +4193,14 @@
     </row>
     <row r="22" spans="5:11">
       <c r="E22" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="54" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G22" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J22" s="54">
         <v>0</v>
@@ -4219,7 +4219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4300,21 +4300,21 @@
         <v>52</v>
       </c>
       <c r="L7" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="N7" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="O7" s="54" t="s">
         <v>114</v>
-      </c>
-      <c r="O7" s="54" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.25" customHeight="1">
       <c r="E8" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="48">
         <v>0</v>
@@ -4323,22 +4323,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>93</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" s="54">
         <v>1</v>
       </c>
       <c r="L8" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="54" t="s">
         <v>116</v>
-      </c>
-      <c r="M8" s="54" t="s">
-        <v>117</v>
       </c>
       <c r="N8" s="48">
         <v>1</v>
@@ -4401,14 +4401,14 @@
     <row r="11" spans="1:15">
       <c r="D11" s="43"/>
       <c r="E11" s="48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F11" s="45" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="48" t="s">
         <v>92</v>
@@ -4420,14 +4420,14 @@
     </row>
     <row r="12" spans="1:15">
       <c r="E12" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F12" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>92</v>
@@ -4437,7 +4437,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4454,27 +4454,27 @@
         <v>77</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>150</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" t="s">
         <v>151</v>
-      </c>
-      <c r="H14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="E15" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4532,52 +4532,52 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="F7" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="G7" t="s">
         <v>124</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>125</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>126</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>127</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>128</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>129</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>130</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>131</v>
-      </c>
-      <c r="N7" t="s">
-        <v>132</v>
       </c>
       <c r="O7" t="s">
         <v>52</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="29" t="s">
         <v>53</v>
@@ -4588,69 +4588,69 @@
     </row>
     <row r="8" spans="1:18">
       <c r="E8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s">
         <v>134</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>135</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>136</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>137</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>138</v>
-      </c>
-      <c r="J8" t="s">
-        <v>139</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" t="s">
         <v>140</v>
-      </c>
-      <c r="M8" t="s">
-        <v>140</v>
-      </c>
-      <c r="N8" t="s">
-        <v>141</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="F10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" t="s">
         <v>146</v>
-      </c>
-      <c r="H10" t="s">
-        <v>147</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>55</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF44949-08FF-479D-BA3B-8F731A5AC265}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E4A12B-0E2E-4F8B-82DF-33ED97CC81D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
   <si>
     <r>
       <rPr>
@@ -2422,9 +2422,6 @@
     <t>threshold</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
     <t>PIPELINE_API_TEST_WARNING</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -2613,7 +2610,27 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;br/&gt;&lt;a href=${link} target=_blank&gt;查看详情&lt;/a &gt;</t>
+    <r>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_web</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;br/&gt;&lt;a href=${link_web} target=_blank&gt;查看详情&lt;/a &gt;</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -3921,7 +3938,7 @@
         <v>93</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J8" s="54" t="s">
         <v>95</v>
@@ -4091,8 +4108,8 @@
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
-      <c r="G16" s="54" t="s">
-        <v>108</v>
+      <c r="G16" s="63" t="s">
+        <v>154</v>
       </c>
       <c r="J16" s="54">
         <v>0</v>
@@ -4199,8 +4216,8 @@
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G22" s="54" t="s">
-        <v>108</v>
+      <c r="G22" s="63" t="s">
+        <v>155</v>
       </c>
       <c r="J22" s="54">
         <v>0</v>
@@ -4300,21 +4317,21 @@
         <v>52</v>
       </c>
       <c r="L7" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="N7" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="O7" s="54" t="s">
         <v>113</v>
-      </c>
-      <c r="O7" s="54" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.25" customHeight="1">
       <c r="E8" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F8" s="48">
         <v>0</v>
@@ -4323,22 +4340,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="54" t="s">
         <v>93</v>
       </c>
       <c r="J8" s="54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" s="54">
         <v>1</v>
       </c>
       <c r="L8" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" s="54" t="s">
         <v>115</v>
-      </c>
-      <c r="M8" s="54" t="s">
-        <v>116</v>
       </c>
       <c r="N8" s="48">
         <v>1</v>
@@ -4401,14 +4418,14 @@
     <row r="11" spans="1:15">
       <c r="D11" s="43"/>
       <c r="E11" s="48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="45" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H11" s="48" t="s">
         <v>92</v>
@@ -4420,14 +4437,14 @@
     </row>
     <row r="12" spans="1:15">
       <c r="E12" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H12" s="48" t="s">
         <v>92</v>
@@ -4437,7 +4454,7 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -4454,27 +4471,27 @@
         <v>77</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>149</v>
       </c>
       <c r="F14" s="29" t="s">
         <v>80</v>
       </c>
       <c r="G14" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" t="s">
         <v>150</v>
-      </c>
-      <c r="H14" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="E15" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4532,52 +4549,52 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="F7" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="G7" t="s">
         <v>123</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>124</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>125</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>126</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>127</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>128</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>129</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>130</v>
-      </c>
-      <c r="N7" t="s">
-        <v>131</v>
       </c>
       <c r="O7" t="s">
         <v>52</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="29" t="s">
         <v>53</v>
@@ -4588,34 +4605,34 @@
     </row>
     <row r="8" spans="1:18">
       <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
         <v>133</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>134</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>135</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>136</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>137</v>
-      </c>
-      <c r="J8" t="s">
-        <v>138</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" t="s">
         <v>139</v>
-      </c>
-      <c r="M8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" t="s">
-        <v>140</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -4629,28 +4646,28 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="E10" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="F10" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="G10" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="H10" t="s">
         <v>145</v>
-      </c>
-      <c r="H10" t="s">
-        <v>146</v>
       </c>
       <c r="I10" s="29" t="s">
         <v>55</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E4A12B-0E2E-4F8B-82DF-33ED97CC81D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAC4618-28DB-44B4-8E20-75E86EBDA6BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3826,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -4236,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -4446,8 +4446,8 @@
       <c r="G12" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="48" t="s">
-        <v>92</v>
+      <c r="H12" s="63" t="s">
+        <v>99</v>
       </c>
       <c r="I12" t="str">
         <f>邮箱服务配置!E8</f>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\devops\devops-service\src\main\resources\script\db\init-data\devops_service\hzero_message\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAC4618-28DB-44B4-8E20-75E86EBDA6BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="19420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,19 +18,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -55,7 +48,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -68,7 +60,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -87,7 +78,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -106,7 +96,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -125,7 +114,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -157,7 +145,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -176,7 +163,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -195,7 +181,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -217,7 +202,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -238,7 +222,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -259,7 +242,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -280,7 +262,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -301,7 +282,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -313,7 +293,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -332,7 +311,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -344,7 +322,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -363,7 +340,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -382,7 +358,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -401,7 +376,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -420,7 +394,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -468,7 +441,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -487,7 +459,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -506,7 +477,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -525,7 +495,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -537,7 +506,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -556,7 +524,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -575,7 +542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -595,7 +561,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -614,7 +579,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -634,7 +598,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -653,7 +616,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -665,7 +627,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -684,7 +645,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -703,7 +663,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -727,7 +686,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -746,7 +704,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -765,7 +722,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -784,7 +740,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -803,7 +758,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -815,7 +769,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -834,7 +787,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -845,7 +797,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -866,7 +817,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -877,7 +827,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -896,7 +845,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -915,7 +863,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -939,7 +886,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -958,7 +904,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -978,7 +923,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -998,7 +942,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1018,7 +961,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1039,7 +981,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1059,7 +1000,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1094,7 +1034,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1115,7 +1054,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1127,7 +1065,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1146,7 +1083,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1167,7 +1103,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1186,7 +1121,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1199,7 +1133,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1218,7 +1151,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1237,7 +1169,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1256,7 +1187,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1271,7 +1201,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1290,7 +1219,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1309,7 +1237,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1328,7 +1255,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1347,7 +1273,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1363,7 +1288,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1373,7 +1297,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1392,7 +1315,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1408,7 +1330,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1418,7 +1339,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1437,7 +1357,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1452,7 +1371,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1471,7 +1389,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1490,7 +1407,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1510,7 +1426,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1534,7 +1449,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1553,7 +1467,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1572,7 +1485,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1592,7 +1504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1613,7 +1524,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1624,7 +1534,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1634,7 +1543,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1646,7 +1554,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1665,7 +1572,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1684,7 +1590,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1703,7 +1608,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1723,7 +1627,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1742,7 +1645,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1761,7 +1663,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1781,7 +1682,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1800,7 +1700,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1819,7 +1718,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1838,7 +1736,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1858,7 +1755,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1870,7 +1766,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1881,7 +1776,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1891,7 +1785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1903,7 +1796,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1922,7 +1814,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1934,7 +1825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1953,7 +1843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1973,7 +1862,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2004,127 +1892,61 @@
     <t>hzero</t>
   </si>
   <si>
+    <t>消息模板</t>
+  </si>
+  <si>
+    <t>hmsg_message_template</t>
+  </si>
+  <si>
+    <t>*template_id</t>
+  </si>
+  <si>
+    <t>#template_code</t>
+  </si>
+  <si>
+    <t>template_name</t>
+  </si>
+  <si>
+    <t>template_title</t>
+  </si>
+  <si>
+    <t>template_content</t>
+  </si>
+  <si>
+    <t>message_category_code</t>
+  </si>
+  <si>
+    <t>message_subcategory_code</t>
+  </si>
+  <si>
+    <t>external_code</t>
+  </si>
+  <si>
+    <t>sql_value</t>
+  </si>
+  <si>
+    <t>#lang</t>
+  </si>
+  <si>
     <t>enabled_flag</t>
   </si>
   <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
-  </si>
-  <si>
     <t>#tenant_id</t>
   </si>
   <si>
-    <t>消息模板</t>
-  </si>
-  <si>
-    <t>hmsg_message_template</t>
-  </si>
-  <si>
-    <t>*template_id</t>
-  </si>
-  <si>
-    <t>#template_code</t>
-  </si>
-  <si>
-    <t>template_name</t>
-  </si>
-  <si>
-    <t>template_title</t>
-  </si>
-  <si>
-    <t>template_content</t>
-  </si>
-  <si>
-    <t>message_category_code</t>
-  </si>
-  <si>
-    <t>message_subcategory_code</t>
-  </si>
-  <si>
-    <t>external_code</t>
-  </si>
-  <si>
-    <t>sql_value</t>
-  </si>
-  <si>
-    <t>#lang</t>
-  </si>
-  <si>
     <t>editor_type</t>
   </si>
   <si>
-    <t>消息模板参数</t>
-  </si>
-  <si>
-    <t>hmsg_template_arg</t>
-  </si>
-  <si>
-    <t>*arg_id</t>
-  </si>
-  <si>
-    <t>#template_id</t>
-  </si>
-  <si>
-    <t>#arg_name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>发送配置</t>
-  </si>
-  <si>
-    <t>hmsg_template_server</t>
-  </si>
-  <si>
-    <t>*temp_server_id</t>
-  </si>
-  <si>
-    <t>#message_code</t>
-  </si>
-  <si>
-    <t>message_name:zh_CN</t>
-  </si>
-  <si>
-    <t>message_name:en_US</t>
-  </si>
-  <si>
-    <t>发送配置(邮箱)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line</t>
-  </si>
-  <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>template_code</t>
-  </si>
-  <si>
-    <t>server_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <r>
+    <t>hmsg_message_template-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>D</t>
     </r>
     <r>
@@ -2132,15 +1954,31 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>EVOPS.PIPELINE_API_TEST_WARNING.WEB</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Choerodon流水线-API测试告警</t>
+  </si>
+  <si>
+    <t>流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;br/&gt;&lt;a href=${link_web} target=_blank&gt;查看详情&lt;/a &gt;</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-2</t>
+  </si>
+  <si>
+    <t>DEVOPS.PIPELINE_API_TEST_WARNING.EMAIL</t>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -2228,15 +2066,82 @@
   &lt;/style&gt;
   &lt;style type="text/css"&gt;
   &lt;/style&gt;
+      &lt;style&gt;
+        .overview-text {
+    color: rgb(239, 255, 255) !important;
+}
+.overview-text {
+    font-size: 22px !important;
+    font-family: Avenir-Book, Avenir !important;
+    font-weight: normal !important;
+    color: #0F1358 !important;
+    line-height: 38px !important;
+}
+.overview-text-icon {
+    color: rgb(133, 224, 255);
+}
+.overview-divided {
+    background-image: initial;
+    background-color: rgb(57, 63, 65);
+}
+.overview-des {
+    margin-top: 21px;
+    display: flex;
+    justify-content: space-between;
+    align-items: center;
+}
+.overview-des-item {
+    background-image: initial;
+    background-color: rgba(16, 35, 153, 0.04);
+}
+.overview-des-item {
+    padding: 20px 32px;
+    background: rgba(14, 29, 128, 0.04);
+    border-radius: 4px;
+    display: flex;
+    justify-content: space-between;
+    align-items: center;
+    flex: 1;
+    width: 318px;
+}
+.overview-des-item-splice {
+    width: 33.3%;
+}
+.overview-des-item-splice-p1 {
+    color: rgba(239, 255, 255, 0.65) !important;
+}
+.overview-des-item-splice-p1 {
+    font-size: 14px !important;
+    font-family: PingFangSC-Regular, PingFang SC !important;
+    font-weight: 400 !important;
+    color: rgba(15, 19, 88, 0.65) !important;
+    line-height: 22px !important;
+    white-space: nowrap !important;
+}
+.overview-des-item-splice-p2 {
+    color: rgb(239, 255, 255) !important;
+}
+.overview-des-item-splice-p2 {
+    margin-top: 2px !important;
+    font-size: 16px !important;
+    font-family: PingFangSC-Regular, PingFang SC !important;
+    font-weight: 400 !important;
+    color: #0F1358 !important;
+    line-height: 28px !important;
+    white-space: nowrap !important;
+    overflow: hidden !important;
+    text-overflow: ellipsis !important;
+}
+    &lt;/style&gt;
 &lt;div style=""&gt;
   &lt;!--[if mso | IE]&gt;
   &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:900px;" width="900"
   &gt;
     &lt;tr&gt;
       &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
   &lt;![endif]--&gt;
-  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+  &lt;div style="Margin:0px auto;max-width:900px;"&gt;
     &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
       &lt;tbody&gt;
       &lt;tr&gt;
@@ -2245,7 +2150,7 @@
           &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
               &lt;td
-                      class="" style="vertical-align:top;width:782px;"
+                      class="" style="vertical-align:top;width:900px;"
               &gt;
           &lt;![endif]--&gt;
           &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
@@ -2253,7 +2158,7 @@
               &lt;tbody&gt;&lt;tr&gt;
                 &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
                   &lt;div style="line-height: 1; text-align: left;"&gt;
-                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                    &lt;div style="width: 900px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
                       &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
                         &lt;table&gt;
                           &lt;tbody&gt;&lt;tr&gt;
@@ -2281,8 +2186,45 @@
                       &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
                         &lt;div style=""&gt;
                           &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 14px;"&gt;您好，项目【${projectName}】，流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;/p&gt;
+                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 24px;"&gt;您好，项目【${projectName}】，流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;/p&gt;
 &lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="overview"&gt;
+                          &lt;p class="overview-text"&gt;
+                            &lt;span class="overview-text-icon"&gt;|&lt;/span&gt;
+                            执行概览
+                          &lt;/p&gt;
+                          &lt;div class="overview-divided"&gt;&lt;/div&gt;
+                          &lt;div class="overview-des"&gt;
+                            &lt;div class="overview-des-item"&gt;
+                              &lt;div class="overview-des-item-splice"&gt;
+                                &lt;p class="overview-des-item-splice-p1"  style="width: 134px;"&gt;执行者&lt;/p&gt;
+                                &lt;p class="overview-des-item-splice-p2"&gt;流水线执行&lt;/p&gt;
+                              &lt;/div&gt;
+                              &lt;div class="overview-des-item-splice" style="width: 161px;"&gt;
+                                &lt;p class="overview-des-item-splice-p1"&gt;开始时间&lt;/p&gt;
+                                &lt;p class="overview-des-item-splice-p2"&gt;${startTime}&lt;/p&gt;
+                              &lt;/div&gt;
+                              &lt;div class="overview-des-item-splice"&gt;
+                                &lt;p class="overview-des-item-splice-p1" style="text-align: right"&gt;执行耗时&lt;/p&gt;
+                                &lt;p class="overview-des-item-splice-p2" style="text-align: right"&gt;${costTime}&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/div&gt;
+                            &lt;div class="overview-des-item" style="margin-left: 32px"&gt;
+                              &lt;div class="overview-des-item-splice"&gt;
+                                &lt;p class="overview-des-item-splice-p1"&gt;通过率&lt;/p&gt;
+                                &lt;p class="overview-des-item-splice-p2"&gt;${successRate}&lt;/p&gt;
+                              &lt;/div&gt;
+                              &lt;div class="overview-des-item-splice"&gt;
+                                &lt;p class="overview-des-item-splice-p1"&gt;用例总数&lt;/p&gt;
+                                &lt;p class="overview-des-item-splice-p2"&gt;${caseCount}&lt;/p&gt;
+                              &lt;/div&gt;
+                              &lt;div class="overview-des-item-splice"&gt;
+                                &lt;p class="overview-des-item-splice-p1"&gt;成功数/失败数&lt;/p&gt;
+                                &lt;p class="overview-des-item-splice-p2"&gt;${successCount}/${failedCount}&lt;/p&gt;
+                              &lt;/div&gt;
+                            &lt;/div&gt;
+                          &lt;/div&gt;
                         &lt;/div&gt;
                         &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
                           &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
@@ -2345,7 +2287,7 @@
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 782px; height: 34px; background: rgb(63, 81, 181);"&gt;
+                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 900px; height: 34px; background: rgb(63, 81, 181);"&gt;
                         &lt;p style="opacity: 0.8;
       font-size: 10px;
       color: #FFFFFF;
@@ -2377,77 +2319,176 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>hmsg_message_template-1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVOPS.PIPELINE_API_TEST_WARNING.EMAIL</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>hmsg_message_template-2</t>
+  </si>
+  <si>
+    <t>消息模板参数</t>
+  </si>
+  <si>
+    <t>hmsg_template_arg</t>
+  </si>
+  <si>
+    <t>*arg_id</t>
+  </si>
+  <si>
+    <t>#template_id</t>
+  </si>
+  <si>
+    <t>#arg_name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
+    <t>pipelineName</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>pipelineName</t>
+    <t>taskName</t>
+  </si>
+  <si>
+    <t>successRate</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_web</t>
+    </r>
   </si>
   <si>
     <t>projectName</t>
   </si>
   <si>
-    <t>taskName</t>
-  </si>
-  <si>
-    <t>successRate</t>
-  </si>
-  <si>
-    <t>threshold</t>
+    <t>link</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>costTime</t>
+  </si>
+  <si>
+    <t>caseCount</t>
+  </si>
+  <si>
+    <t>successCount</t>
+  </si>
+  <si>
+    <t>failedCount</t>
+  </si>
+  <si>
+    <t>发送配置</t>
+  </si>
+  <si>
+    <t>hmsg_template_server</t>
+  </si>
+  <si>
+    <t>*temp_server_id</t>
+  </si>
+  <si>
+    <t>#message_code</t>
+  </si>
+  <si>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>subcategory_code</t>
+  </si>
+  <si>
+    <t>receive_config_flag</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-1</t>
   </si>
   <si>
     <t>PIPELINE_API_TEST_WARNING</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>default</t>
   </si>
   <si>
-    <t>category_code</t>
-  </si>
-  <si>
-    <t>subcategory_code</t>
-  </si>
-  <si>
-    <t>receive_config_flag</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>PROJECT</t>
   </si>
   <si>
     <t>STREAM-CHANGE-NOTICE</t>
   </si>
   <si>
-    <r>
+    <t>发送配置(邮箱)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line</t>
+  </si>
+  <si>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>template_code</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>hmsg_template_server_line-</t>
     </r>
     <r>
@@ -2455,17 +2496,73 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>WEB</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hmsg_template_server_line-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notify_message_setting_config-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
     <t>2020-05-29</t>
   </si>
   <si>
@@ -2511,9 +2608,6 @@
     <t>hmsg_email_server-9</t>
   </si>
   <si>
-    <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
     <t>平台默认邮箱设置</t>
   </si>
   <si>
@@ -2548,97 +2642,19 @@
   </si>
   <si>
     <t>property_value</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#edit</t>
-  </si>
-  <si>
-    <t>#TENANT_ID</t>
-  </si>
-  <si>
-    <r>
-      <t>notify_message_setting_config-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>hmsg_template_server_line-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>hmsg_template_server-1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_web</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;br/&gt;&lt;a href=${link_web} target=_blank&gt;查看详情&lt;/a &gt;</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2646,18 +2662,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2676,48 +2726,158 @@
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2738,218 +2898,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2980,8 +2954,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2993,12 +3153,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3023,6 +3199,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3031,26 +3220,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3065,15 +3234,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3082,13 +3242,287 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3097,154 +3531,116 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3317,9 +3713,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3577,708 +3970,802 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5526315789474" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.3289473684211" style="16" customWidth="1"/>
+    <col min="3" max="3" width="28.1118421052632" customWidth="1"/>
+    <col min="4" max="4" width="35.3289473684211" style="17" customWidth="1"/>
+    <col min="5" max="5" width="38.5526315789474" customWidth="1"/>
+    <col min="6" max="6" width="23.4407894736842" customWidth="1"/>
+    <col min="7" max="7" width="21.5526315789474" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.5526315789474" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1118421052632" customWidth="1"/>
+    <col min="12" max="12" width="18.5526315789474" customWidth="1"/>
+    <col min="13" max="13" width="13.1118421052632" customWidth="1"/>
+    <col min="14" max="1025" width="10.3289473684211" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="71" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="18"/>
+      <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="18">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="70" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="73" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="40" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" ht="16" spans="1:3">
+      <c r="A5" s="18"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
-      <c r="C7" s="10" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.5">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="42"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="74" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
-      <c r="C22" s="24" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="70"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="70"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="35" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="4" width="8.88671875" style="54"/>
-    <col min="5" max="5" width="23.88671875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="42.109375" style="54" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="54" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="54" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="54" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" style="54" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="54" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="54" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="54"/>
+    <col min="1" max="4" width="8.88815789473684" style="8"/>
+    <col min="5" max="5" width="23.8881578947368" style="8" customWidth="1"/>
+    <col min="6" max="6" width="42.1118421052632" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.4407894736842" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.8881578947368" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.8881578947368" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.1118421052632" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.2171052631579" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.5526315789474" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.2171052631579" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.88815789473684" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="E4" s="55" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="H7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="I7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="J7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="K7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="L7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="M7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="N7" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="O7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="P7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="Q7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="N7" s="61" t="s">
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="4:17">
+      <c r="D8" s="9"/>
+      <c r="E8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="54" t="s">
+      <c r="F8" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1">
-      <c r="D8" s="58"/>
-      <c r="E8" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" s="65" t="s">
-        <v>156</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="O8" s="54">
+      <c r="G8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="54">
+      <c r="P8" s="8">
         <v>0</v>
       </c>
-      <c r="Q8" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
-      <c r="E9" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="N9" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="O9" s="54">
+      <c r="Q8" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" customHeight="1" spans="5:17">
+      <c r="E9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="8">
         <v>1</v>
       </c>
-      <c r="P9" s="54">
+      <c r="P9" s="8">
         <v>0</v>
       </c>
-      <c r="Q9" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="54" t="s">
+      <c r="Q9" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" customHeight="1" spans="6:8">
+      <c r="F10" s="7"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="E12" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" s="54" t="str">
+      <c r="C11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11">
+      <c r="E12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
-      <c r="G12" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="E13" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="54" t="str">
+      <c r="G12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11">
+      <c r="E13" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
-      <c r="G13" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="54">
+      <c r="G13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" s="8">
         <v>0</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="E14" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" s="54" t="str">
+    <row r="14" spans="5:11">
+      <c r="E14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="54">
+      <c r="G14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" s="8">
         <v>0</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="E15" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="54" t="str">
+    <row r="15" spans="5:11">
+      <c r="E15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
-      <c r="G15" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="J15" s="54">
+      <c r="G15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="8">
         <v>0</v>
       </c>
-      <c r="K15" s="54">
+      <c r="K15" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="E16" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="54" t="str">
+    <row r="16" ht="16" spans="5:11">
+      <c r="E16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
-      <c r="G16" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" s="54">
+      <c r="G16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="8">
         <v>0</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:11">
-      <c r="E17" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="54" t="str">
+      <c r="E17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G17" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" s="54">
+      <c r="G17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="8">
         <v>0</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="5:11">
-      <c r="E18" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="54" t="str">
+      <c r="E18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G18" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="J18" s="54">
+      <c r="G18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="8">
         <v>0</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:11">
-      <c r="E19" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="54" t="str">
+      <c r="E19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G19" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="54">
+      <c r="G19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="8">
         <v>0</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:11">
-      <c r="E20" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="54" t="str">
+      <c r="E20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G20" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="54">
+      <c r="G20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="8">
         <v>0</v>
       </c>
-      <c r="K20" s="54">
+      <c r="K20" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:11">
-      <c r="E21" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="54" t="str">
+      <c r="E21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G21" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="54">
+      <c r="G21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="8">
         <v>0</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:11">
-      <c r="E22" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="54" t="str">
+      <c r="E22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G22" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="J22" s="54">
+      <c r="G22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="8">
         <v>0</v>
       </c>
-      <c r="K22" s="54">
+      <c r="K22" s="8">
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="5:11">
+      <c r="E23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0</v>
+      </c>
+      <c r="K26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="8" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7763157894737" customWidth="1"/>
+    <col min="3" max="3" width="16.3289473684211" customWidth="1"/>
+    <col min="4" max="4" width="21.1118421052632" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="24.6644736842105" customWidth="1"/>
+    <col min="7" max="7" width="11.7763157894737" customWidth="1"/>
+    <col min="8" max="8" width="15.6644736842105" customWidth="1"/>
+    <col min="9" max="9" width="20.6644736842105" customWidth="1"/>
+    <col min="10" max="10" width="20.3289473684211" customWidth="1"/>
+    <col min="11" max="11" width="13.5526315789474" customWidth="1"/>
+    <col min="12" max="12" width="13.6644736842105" customWidth="1"/>
+    <col min="13" max="13" width="17.3289473684211" customWidth="1"/>
+    <col min="14" max="14" width="12.5526315789474" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="E4" s="35" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4290,94 +4777,94 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="1" spans="5:15">
+      <c r="E8" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="54" t="s">
+      <c r="I8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="O7" s="54" t="s">
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="20.25" customHeight="1">
-      <c r="E8" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="48">
-        <v>0</v>
-      </c>
-      <c r="G8" s="49">
-        <v>0</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="54">
+      <c r="M8" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="5">
         <v>1</v>
       </c>
-      <c r="L8" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" s="48">
-        <v>1</v>
-      </c>
-      <c r="O8" s="54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="20.25" customHeight="1">
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="54"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="20.25" customHeight="1" spans="5:15">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4385,82 +4872,82 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G10" s="46" t="s">
-        <v>76</v>
+        <v>115</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>88</v>
+        <v>120</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="D11" s="43"/>
-      <c r="E11" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="45" t="str">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" ht="16" spans="4:12">
+      <c r="D11" s="1"/>
+      <c r="E11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="3" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="47"/>
+        <v>126</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="L11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="48" t="s">
-        <v>152</v>
+    <row r="12" ht="16" spans="5:12">
+      <c r="E12" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="F12" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="63" t="s">
-        <v>99</v>
+        <v>128</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="I12" t="str">
         <f>邮箱服务配置!E8</f>
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -4468,30 +4955,30 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>149</v>
+        <v>100</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>108</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" ht="16" spans="5:8">
+      <c r="E15" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4501,181 +4988,182 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BCBCD8B-C016-4411-8D31-9F71F55B8AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
   <cols>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.2171052631579" customWidth="1"/>
+    <col min="6" max="6" width="21.2171052631579" customWidth="1"/>
+    <col min="8" max="8" width="14.6644736842105" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="E4" s="28" t="s">
+    <row r="4" spans="5:7">
+      <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>122</v>
+        <v>136</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="L7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="M7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N7" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18">
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
         <v>129</v>
       </c>
-      <c r="N7" t="s">
-        <v>130</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>133</v>
-      </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="M8" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="N8" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>144</v>
+        <v>156</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>55</v>
+        <v>161</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="19420" tabRatio="597" activeTab="1"/>
+    <workbookView windowHeight="19420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2213,7 +2213,7 @@
                             &lt;div class="overview-des-item" style="margin-left: 32px"&gt;
                               &lt;div class="overview-des-item-splice"&gt;
                                 &lt;p class="overview-des-item-splice-p1"&gt;通过率&lt;/p&gt;
-                                &lt;p class="overview-des-item-splice-p2"&gt;${successRate}&lt;/p&gt;
+                                &lt;p class="overview-des-item-splice-p2"&gt;${successRate}%&lt;/p&gt;
                               &lt;/div&gt;
                               &lt;div class="overview-des-item-splice"&gt;
                                 &lt;p class="overview-des-item-splice-p1"&gt;用例总数&lt;/p&gt;
@@ -2649,12 +2649,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2683,12 +2683,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2730,7 +2724,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2743,23 +2751,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2774,7 +2775,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2782,7 +2783,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2791,13 +2807,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2813,7 +2822,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2828,21 +2837,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2850,7 +2844,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2865,18 +2859,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2962,7 +2956,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2974,7 +3004,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2986,85 +3064,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3082,49 +3100,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3137,6 +3125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3243,6 +3237,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3258,15 +3270,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3278,17 +3281,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3317,15 +3309,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3340,166 +3323,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3520,7 +3514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3529,26 +3523,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3556,33 +3549,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3987,7 +3980,7 @@
     <col min="1" max="1" width="15.5526315789474" style="15" customWidth="1"/>
     <col min="2" max="2" width="10.3289473684211" style="16" customWidth="1"/>
     <col min="3" max="3" width="28.1118421052632" customWidth="1"/>
-    <col min="4" max="4" width="35.3289473684211" style="17" customWidth="1"/>
+    <col min="4" max="4" width="35.3289473684211" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5526315789474" customWidth="1"/>
     <col min="6" max="6" width="23.4407894736842" customWidth="1"/>
     <col min="7" max="7" width="21.5526315789474" customWidth="1"/>
@@ -4001,79 +3994,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="18"/>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="17"/>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="33"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="16" spans="1:3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -4081,56 +4074,56 @@
       </c>
     </row>
     <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="42" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="42"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="41"/>
     </row>
     <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4140,64 +4133,64 @@
       </c>
     </row>
     <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="32" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4222,8 +4215,8 @@
   <sheetPr/>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasin/project/choerodon/devops-service/src/main/resources/script/db/init-data/devops_service/hzero_message/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F0F7D-4B89-CE46-B10F-DCC6668A87A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="19420" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,21 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="162">
   <si>
     <r>
       <rPr>
@@ -1979,6 +1994,329 @@
   </si>
   <si>
     <t>DEVOPS.PIPELINE_API_TEST_WARNING.EMAIL</t>
+  </si>
+  <si>
+    <t>消息模板参数</t>
+  </si>
+  <si>
+    <t>hmsg_template_arg</t>
+  </si>
+  <si>
+    <t>*arg_id</t>
+  </si>
+  <si>
+    <t>#template_id</t>
+  </si>
+  <si>
+    <t>#arg_name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>pipelineName</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>taskName</t>
+  </si>
+  <si>
+    <t>successRate</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_web</t>
+    </r>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>costTime</t>
+  </si>
+  <si>
+    <t>caseCount</t>
+  </si>
+  <si>
+    <t>successCount</t>
+  </si>
+  <si>
+    <t>failedCount</t>
+  </si>
+  <si>
+    <t>发送配置</t>
+  </si>
+  <si>
+    <t>hmsg_template_server</t>
+  </si>
+  <si>
+    <t>*temp_server_id</t>
+  </si>
+  <si>
+    <t>#message_code</t>
+  </si>
+  <si>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>subcategory_code</t>
+  </si>
+  <si>
+    <t>receive_config_flag</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-1</t>
+  </si>
+  <si>
+    <t>PIPELINE_API_TEST_WARNING</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>STREAM-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <t>发送配置(邮箱)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line</t>
+  </si>
+  <si>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>template_code</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hmsg_template_server_line-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hmsg_template_server_line-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notify_message_setting_config-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>邮箱服务</t>
+  </si>
+  <si>
+    <t>hmsg_email_server</t>
+  </si>
+  <si>
+    <t>*server_id</t>
+  </si>
+  <si>
+    <t>#server_code</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>try_times</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password_encrypted</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>filter_strategy</t>
+  </si>
+  <si>
+    <t>hmsg_email_server-9</t>
+  </si>
+  <si>
+    <t>平台默认邮箱设置</t>
+  </si>
+  <si>
+    <t>smtp.164.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>邮箱服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_email_property</t>
+  </si>
+  <si>
+    <t>*property_id</t>
+  </si>
+  <si>
+    <t>#server_id</t>
+  </si>
+  <si>
+    <t>#property_code</t>
+  </si>
+  <si>
+    <t>property_value</t>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -2063,14 +2401,7 @@
         max-width: 100%;
       }
     }
-  &lt;/style&gt;
-  &lt;style type="text/css"&gt;
-  &lt;/style&gt;
-      &lt;style&gt;
-        .overview-text {
-    color: rgb(239, 255, 255) !important;
-}
-.overview-text {
+    .overview-text {
     font-size: 22px !important;
     font-family: Avenir-Book, Avenir !important;
     font-weight: normal !important;
@@ -2132,16 +2463,18 @@
     overflow: hidden !important;
     text-overflow: ellipsis !important;
 }
-    &lt;/style&gt;
-&lt;div style=""&gt;
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;/head&gt;&lt;body&gt;&lt;div style=""&gt;
   &lt;!--[if mso | IE]&gt;
   &lt;table
-          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:900px;" width="900"
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
   &gt;
     &lt;tr&gt;
       &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
   &lt;![endif]--&gt;
-  &lt;div style="Margin:0px auto;max-width:900px;"&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
     &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
       &lt;tbody&gt;
       &lt;tr&gt;
@@ -2150,7 +2483,7 @@
           &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
             &lt;tr&gt;
               &lt;td
-                      class="" style="vertical-align:top;width:900px;"
+                      class="" style="vertical-align:top;width:782px;"
               &gt;
           &lt;![endif]--&gt;
           &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
@@ -2158,36 +2491,24 @@
               &lt;tbody&gt;&lt;tr&gt;
                 &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
                   &lt;div style="line-height: 1; text-align: left;"&gt;
-                    &lt;div style="width: 900px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; height: 115px; background-color: rgb(255, 255, 255); border-bottom: 8px solid rgb(63, 81, 181);"&gt;
-                        &lt;table&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="margin-top: 60px;color: rgb(0, 0, 0);font-family: Ubuntu, Helvetica, Arial, sans-serif;font-size: 13px;height: 55px;background-color: rgb(255, 255, 255);"&gt;
+                        &lt;table style="width: 100%;"&gt;
                           &lt;tbody&gt;&lt;tr&gt;
-                            &lt;td style="padding-bottom: 0;vertical-align: bottom;"&gt;
-                              &lt;table&gt;
+                            &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
+                              &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:190px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;/tr&gt;
+                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
-                            &lt;/td&gt;&lt;td style="vertical-align: bottom;"&gt;
-                              &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; "&gt;
-                                &lt;p style="font-size: 14px;
-    color: #252528;
-    letter-spacing: 0;
-    display: inline-block;
-    text-align: right;
-    width: 558px;
-    padding-top: 55px;"&gt;&lt;/p&gt;
-                              &lt;/div&gt;
                             &lt;/td&gt;
                           &lt;/tr&gt;
                         &lt;/tbody&gt;&lt;/table&gt;
                       &lt;/div&gt;
-                      &lt;div style="padding: 68px 40px; border-width: 0px 1px; border-bottom-style: initial; border-bottom-color: initial; border-top-style: initial; border-top-color: initial; border-left-style: solid; border-left-color: rgb(230, 230, 230); border-right-style: solid; border-right-color: rgb(230, 230, 230); border-radius: 2px; background: rgb(255, 255, 255);"&gt;
-                        &lt;div style=""&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; margin-top: 0px;"&gt;亲爱的用户，您好！&lt;/p&gt;
-                          &lt;p style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 14px; text-align: justify; margin-bottom: 0px; line-height: 24px;"&gt;您好，项目【${projectName}】，流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;/p&gt;
-&lt;/p&gt;
+                      &lt;div style="border-width: 1px 0px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
+                        &lt;div style="margin: 0px 10px"&gt;
+                          &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px; padding-top: 20px;"&gt;您好，项目【${projectName}】，流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;/p&gt;
                         &lt;/div&gt;
                         &lt;div class="overview"&gt;
                           &lt;p class="overview-text"&gt;
@@ -2241,61 +2562,76 @@
                             &lt;/tr&gt;
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
+                        &lt;br&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px;"&gt;
+                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
                         &lt;div style="text-align: justify;"&gt;
-                          &lt;table style="height: 148px; background-color: #f7f7f7;width: 100%;"&gt;
+                          &lt;table style="height: 148px;width: 100%;"&gt;
                             &lt;tbody&gt;&lt;tr&gt;
-                              &lt;td style="padding-left: 29px;"&gt;
-                                &lt;table&gt;
-                                  &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:90px;" width="90" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
-                                  &lt;tr&gt;
-                                    &lt;td style="text-align: center"&gt;微信公众号&lt;/td&gt;
-                                  &lt;/tr&gt;
-                                &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td&gt;
-                              &lt;/td&gt;&lt;td&gt;
-                                &lt;div style="padding-top: 1px;margin-left: 10px; height: 90px; margin-top: 10px; vertical-align: top;"&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
+                              &lt;td&gt;
+                                &lt;div style="/* padding-top: 1px; */margin-left: 10px;/* height: 90px; *//* margin-top: 28px; */vertical-align: top;"&gt;
+                                  &lt;p style="
+      font-size: 13px;
+      color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
+      margin-top: 0;
+      border-width: 1px;
+      "&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="
+      font-size: 13px;
+      color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt;或 &lt;a style="text-decoration:none;font-size: 12px" href="http://choerodon.io/zh/docs/" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
+      margin-top: 0;
+      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 13px;
+      color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px" href="http://forum.choerodon.io/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
-                                  &lt;p style="font-size: 12px;
-      color: #626774;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 13px;
+      color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：choerodon@vip.hand-china.com&lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;/tr&gt;
+                            &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;/tr&gt;
                           &lt;/tbody&gt;&lt;/table&gt;
                         &lt;/div&gt;
                       &lt;/div&gt;
-                      &lt;div style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; width: 900px; height: 34px; background: rgb(63, 81, 181);"&gt;
-                        &lt;p style="opacity: 0.8;
+                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                        &lt;p style="
+      opacity: 0.8;
       font-size: 10px;
-      color: #FFFFFF;
+      color: rgba(15,19,88,0.65);
       text-align: center;
       display: inline-block;
       line-height: 34px;
       width: 100%;
-      margin: 0 auto;"&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+      margin: 0 auto;
+      "&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
                   &lt;/div&gt;
@@ -2319,342 +2655,14 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>消息模板参数</t>
-  </si>
-  <si>
-    <t>hmsg_template_arg</t>
-  </si>
-  <si>
-    <t>*arg_id</t>
-  </si>
-  <si>
-    <t>#template_id</t>
-  </si>
-  <si>
-    <t>#arg_name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>pipelineName</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>taskName</t>
-  </si>
-  <si>
-    <t>successRate</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_web</t>
-    </r>
-  </si>
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>costTime</t>
-  </si>
-  <si>
-    <t>caseCount</t>
-  </si>
-  <si>
-    <t>successCount</t>
-  </si>
-  <si>
-    <t>failedCount</t>
-  </si>
-  <si>
-    <t>发送配置</t>
-  </si>
-  <si>
-    <t>hmsg_template_server</t>
-  </si>
-  <si>
-    <t>*temp_server_id</t>
-  </si>
-  <si>
-    <t>#message_code</t>
-  </si>
-  <si>
-    <t>message_name:zh_CN</t>
-  </si>
-  <si>
-    <t>message_name:en_US</t>
-  </si>
-  <si>
-    <t>category_code</t>
-  </si>
-  <si>
-    <t>subcategory_code</t>
-  </si>
-  <si>
-    <t>receive_config_flag</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-1</t>
-  </si>
-  <si>
-    <t>PIPELINE_API_TEST_WARNING</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>STREAM-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>发送配置(邮箱)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line</t>
-  </si>
-  <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>template_code</t>
-  </si>
-  <si>
-    <t>server_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>hmsg_template_server_line-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>hmsg_template_server_line-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#edit</t>
-  </si>
-  <si>
-    <t>#TENANT_ID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>notify_message_setting_config-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>2020-05-29</t>
-  </si>
-  <si>
-    <t>邮箱服务</t>
-  </si>
-  <si>
-    <t>hmsg_email_server</t>
-  </si>
-  <si>
-    <t>*server_id</t>
-  </si>
-  <si>
-    <t>#server_code</t>
-  </si>
-  <si>
-    <t>server_name</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>try_times</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password_encrypted</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>filter_strategy</t>
-  </si>
-  <si>
-    <t>hmsg_email_server-9</t>
-  </si>
-  <si>
-    <t>平台默认邮箱设置</t>
-  </si>
-  <si>
-    <t>smtp.164.com</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
-  </si>
-  <si>
-    <t>邮箱服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_email_property</t>
-  </si>
-  <si>
-    <t>*property_id</t>
-  </si>
-  <si>
-    <t>#server_id</t>
-  </si>
-  <si>
-    <t>#property_code</t>
-  </si>
-  <si>
-    <t>property_value</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2665,25 +2673,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2721,157 +2729,6 @@
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2916,8 +2773,27 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2948,194 +2824,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3236,254 +2926,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3524,15 +2972,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3546,9 +2985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3558,9 +2994,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3581,59 +3014,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3706,6 +3110,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3963,278 +3370,275 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.5526315789474" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.3289473684211" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.1118421052632" customWidth="1"/>
-    <col min="4" max="4" width="35.3289473684211" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5526315789474" customWidth="1"/>
-    <col min="6" max="6" width="23.4407894736842" customWidth="1"/>
-    <col min="7" max="7" width="21.5526315789474" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5526315789474" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1118421052632" customWidth="1"/>
-    <col min="12" max="12" width="18.5526315789474" customWidth="1"/>
-    <col min="13" max="13" width="13.1118421052632" customWidth="1"/>
-    <col min="14" max="1025" width="10.3289473684211" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="19" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="20" t="s">
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" ht="19">
+      <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="17"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="41"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" ht="57">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="37" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:8" ht="57">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="23" t="s">
+    <row r="11" spans="1:8" ht="76">
+      <c r="C11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="23" t="s">
+    <row r="12" spans="1:8" ht="19">
+      <c r="C12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="41"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="41"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="28" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" ht="38">
+      <c r="C15" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="30" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="31" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="31" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="31" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="31" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="33" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="34" t="s">
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="3:5" ht="57">
+      <c r="C27" s="30" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="4" width="8.88815789473684" style="8"/>
-    <col min="5" max="5" width="23.8881578947368" style="8" customWidth="1"/>
-    <col min="6" max="6" width="42.1118421052632" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.4407894736842" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.8881578947368" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.8881578947368" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.1118421052632" style="8" customWidth="1"/>
-    <col min="11" max="11" width="25.2171052631579" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.5526315789474" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.2171052631579" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.88815789473684" style="8"/>
+    <col min="1" max="4" width="8.85546875" style="8"/>
+    <col min="5" max="5" width="23.85546875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:17">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -4248,7 +3652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:17">
       <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
@@ -4312,7 +3716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" spans="4:17">
+    <row r="8" spans="1:17" ht="16.5" customHeight="1">
       <c r="D8" s="9"/>
       <c r="E8" s="7" t="s">
         <v>67</v>
@@ -4345,7 +3749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" ht="18.75" customHeight="1" spans="5:17">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1">
       <c r="E9" s="7" t="s">
         <v>74</v>
       </c>
@@ -4358,8 +3762,8 @@
       <c r="H9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>76</v>
+      <c r="I9" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>71</v>
@@ -4377,12 +3781,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" ht="18.75" customHeight="1" spans="6:8">
+    <row r="10" spans="1:17" ht="18.75" customHeight="1">
       <c r="F10" s="7"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:17">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -4390,61 +3794,61 @@
         <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="E12" s="8" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="5:11">
-      <c r="E12" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="F12" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="K12" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="5:11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" s="8">
         <v>0</v>
@@ -4453,16 +3857,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:11">
+    <row r="14" spans="1:17">
       <c r="E14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F14" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J14" s="8">
         <v>0</v>
@@ -4471,16 +3875,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:11">
+    <row r="15" spans="1:17">
       <c r="E15" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15" s="8">
         <v>0</v>
@@ -4489,16 +3893,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16" spans="5:11">
+    <row r="16" spans="1:17">
       <c r="E16" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J16" s="8">
         <v>0</v>
@@ -4509,14 +3913,14 @@
     </row>
     <row r="17" spans="5:11">
       <c r="E17" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J17" s="8">
         <v>0</v>
@@ -4527,14 +3931,14 @@
     </row>
     <row r="18" spans="5:11">
       <c r="E18" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" s="8">
         <v>0</v>
@@ -4545,14 +3949,14 @@
     </row>
     <row r="19" spans="5:11">
       <c r="E19" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="8">
         <v>0</v>
@@ -4563,14 +3967,14 @@
     </row>
     <row r="20" spans="5:11">
       <c r="E20" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" s="8">
         <v>0</v>
@@ -4581,14 +3985,14 @@
     </row>
     <row r="21" spans="5:11">
       <c r="E21" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F21" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="8">
         <v>0</v>
@@ -4599,14 +4003,14 @@
     </row>
     <row r="22" spans="5:11">
       <c r="E22" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J22" s="8">
         <v>0</v>
@@ -4617,14 +4021,14 @@
     </row>
     <row r="23" spans="5:11">
       <c r="E23" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="8">
         <v>0</v>
@@ -4635,14 +4039,14 @@
     </row>
     <row r="24" spans="5:11">
       <c r="E24" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J24" s="8">
         <v>0</v>
@@ -4653,14 +4057,14 @@
     </row>
     <row r="25" spans="5:11">
       <c r="E25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25" s="8">
         <v>0</v>
@@ -4671,14 +4075,14 @@
     </row>
     <row r="26" spans="5:11">
       <c r="E26" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J26" s="8">
         <v>0</v>
@@ -4689,14 +4093,14 @@
     </row>
     <row r="27" spans="5:11">
       <c r="E27" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="8" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J27" s="8">
         <v>0</v>
@@ -4706,38 +4110,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.7763157894737" customWidth="1"/>
-    <col min="3" max="3" width="16.3289473684211" customWidth="1"/>
-    <col min="4" max="4" width="21.1118421052632" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="24.6644736842105" customWidth="1"/>
-    <col min="7" max="7" width="11.7763157894737" customWidth="1"/>
-    <col min="8" max="8" width="15.6644736842105" customWidth="1"/>
-    <col min="9" max="9" width="20.6644736842105" customWidth="1"/>
-    <col min="10" max="10" width="20.3289473684211" customWidth="1"/>
-    <col min="11" max="11" width="13.5526315789474" customWidth="1"/>
-    <col min="12" max="12" width="13.6644736842105" customWidth="1"/>
-    <col min="13" max="13" width="17.3289473684211" customWidth="1"/>
-    <col min="14" max="14" width="12.5526315789474" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4751,7 +4154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:15">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4770,48 +4173,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" t="s">
         <v>103</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>104</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="O7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:15" ht="20.25" customHeight="1">
+      <c r="E8" s="5" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="8" ht="20.25" customHeight="1" spans="5:15">
-      <c r="E8" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -4820,22 +4223,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
@@ -4844,7 +4247,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" ht="20.25" customHeight="1" spans="5:15">
+    <row r="9" spans="1:15" ht="20.25" customHeight="1">
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
@@ -4857,7 +4260,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4865,47 +4268,47 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" t="s">
         <v>119</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" t="s">
         <v>121</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>122</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>123</v>
       </c>
-      <c r="L10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" ht="16" spans="4:12">
+    </row>
+    <row r="11" spans="1:15">
       <c r="D11" s="1"/>
       <c r="E11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>68</v>
@@ -4915,16 +4318,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="5:12">
+    <row r="12" spans="1:15">
       <c r="E12" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>75</v>
@@ -4934,13 +4337,13 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -4948,30 +4351,30 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" t="s">
         <v>132</v>
       </c>
-      <c r="H14" t="s">
+    </row>
+    <row r="15" spans="1:15">
+      <c r="E15" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="15" ht="16" spans="5:8">
-      <c r="E15" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -4981,29 +4384,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
-    <col min="5" max="5" width="23.2171052631579" customWidth="1"/>
-    <col min="6" max="6" width="21.2171052631579" customWidth="1"/>
-    <col min="8" max="8" width="14.6644736842105" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -5017,7 +4419,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:18">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -5030,133 +4432,133 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" t="s">
         <v>139</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>140</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>141</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>142</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>143</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>144</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>145</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>146</v>
-      </c>
-      <c r="N7" t="s">
-        <v>147</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
       <c r="P7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="E8" t="s">
         <v>148</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="5:18">
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" t="s">
         <v>149</v>
       </c>
-      <c r="F8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>150</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>151</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>152</v>
-      </c>
-      <c r="J8" t="s">
-        <v>153</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M8" t="s">
+        <v>153</v>
+      </c>
+      <c r="N8" t="s">
         <v>154</v>
-      </c>
-      <c r="M8" t="s">
-        <v>154</v>
-      </c>
-      <c r="N8" t="s">
-        <v>155</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" t="s">
         <v>160</v>
-      </c>
-      <c r="H10" t="s">
-        <v>161</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasin/project/choerodon/devops-service/src/main/resources/script/db/init-data/devops_service/hzero_message/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1F0F7D-4B89-CE46-B10F-DCC6668A87A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26880" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -24,21 +18,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="174">
   <si>
     <r>
       <rPr>
@@ -1994,329 +1979,6 @@
   </si>
   <si>
     <t>DEVOPS.PIPELINE_API_TEST_WARNING.EMAIL</t>
-  </si>
-  <si>
-    <t>消息模板参数</t>
-  </si>
-  <si>
-    <t>hmsg_template_arg</t>
-  </si>
-  <si>
-    <t>*arg_id</t>
-  </si>
-  <si>
-    <t>#template_id</t>
-  </si>
-  <si>
-    <t>#arg_name</t>
-  </si>
-  <si>
-    <t>description:zh_CN</t>
-  </si>
-  <si>
-    <t>description:en_US</t>
-  </si>
-  <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>pipelineName</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>taskName</t>
-  </si>
-  <si>
-    <t>successRate</t>
-  </si>
-  <si>
-    <t>threshold</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>link</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_web</t>
-    </r>
-  </si>
-  <si>
-    <t>projectName</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>startTime</t>
-  </si>
-  <si>
-    <t>costTime</t>
-  </si>
-  <si>
-    <t>caseCount</t>
-  </si>
-  <si>
-    <t>successCount</t>
-  </si>
-  <si>
-    <t>failedCount</t>
-  </si>
-  <si>
-    <t>发送配置</t>
-  </si>
-  <si>
-    <t>hmsg_template_server</t>
-  </si>
-  <si>
-    <t>*temp_server_id</t>
-  </si>
-  <si>
-    <t>#message_code</t>
-  </si>
-  <si>
-    <t>message_name:zh_CN</t>
-  </si>
-  <si>
-    <t>message_name:en_US</t>
-  </si>
-  <si>
-    <t>category_code</t>
-  </si>
-  <si>
-    <t>subcategory_code</t>
-  </si>
-  <si>
-    <t>receive_config_flag</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>hmsg_template_server-1</t>
-  </si>
-  <si>
-    <t>PIPELINE_API_TEST_WARNING</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
-    <t>STREAM-CHANGE-NOTICE</t>
-  </si>
-  <si>
-    <t>发送配置(邮箱)</t>
-  </si>
-  <si>
-    <t>hmsg_template_server_line</t>
-  </si>
-  <si>
-    <t>*temp_server_line_id</t>
-  </si>
-  <si>
-    <t>#temp_server_id</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>template_code</t>
-  </si>
-  <si>
-    <t>server_id</t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>server_code</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>hmsg_template_server_line-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>WEB</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>hmsg_template_server_line-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>CHOERODON-EMAIL</t>
-  </si>
-  <si>
-    <t>notify_message_setting_config</t>
-  </si>
-  <si>
-    <t>*id</t>
-  </si>
-  <si>
-    <t>#edit</t>
-  </si>
-  <si>
-    <t>#TENANT_ID</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>notify_message_setting_config-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>2020-05-29</t>
-  </si>
-  <si>
-    <t>邮箱服务</t>
-  </si>
-  <si>
-    <t>hmsg_email_server</t>
-  </si>
-  <si>
-    <t>*server_id</t>
-  </si>
-  <si>
-    <t>#server_code</t>
-  </si>
-  <si>
-    <t>server_name</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>try_times</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password_encrypted</t>
-  </si>
-  <si>
-    <t>sender</t>
-  </si>
-  <si>
-    <t>filter_strategy</t>
-  </si>
-  <si>
-    <t>hmsg_email_server-9</t>
-  </si>
-  <si>
-    <t>平台默认邮箱设置</t>
-  </si>
-  <si>
-    <t>smtp.164.com</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>smtp</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>eg:hzero@163.com</t>
-  </si>
-  <si>
-    <t>邮箱服务配置</t>
-  </si>
-  <si>
-    <t>hmsg_email_property</t>
-  </si>
-  <si>
-    <t>*property_id</t>
-  </si>
-  <si>
-    <t>#server_id</t>
-  </si>
-  <si>
-    <t>#property_code</t>
-  </si>
-  <si>
-    <t>property_value</t>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -2655,14 +2317,727 @@
   &lt;/table&gt;
   &lt;![endif]--&gt;
 &lt;/div&gt;</t>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmsg_message_template-3</t>
+  </si>
+  <si>
+    <t>DEVOPS.PIPELINE_API_TEST_SUITE_WARNING.WEB</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-4</t>
+  </si>
+  <si>
+    <t>DEVOPS.PIPELINE_API_TEST_SUITE_WARNING.EMAIL</t>
+  </si>
+  <si>
+    <t>&lt;title&gt; &lt;/title&gt;
+  &lt;!--[if !mso]&gt;&lt;!-- --&gt;
+  &lt;meta http-equiv="X-UA-Compatible" content="IE=edge"&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;meta http-equiv="Content-Type" content="text/html; charset=UTF-8"&gt;
+  &lt;meta name="viewport" content="width=device-width, initial-scale=1"&gt;
+  &lt;style type="text/css"&gt;
+    #outlook a {
+      padding: 0;
+    }
+    .ReadMsgBody {
+      width: 100%;
+    }
+    .ExternalClass {
+      width: 100%;
+    }
+    .ExternalClass * {
+      line-height: 100%;
+    }
+    body {
+      margin: 0;
+      padding: 0;
+      -webkit-text-size-adjust: 100%;
+      -ms-text-size-adjust: 100%;
+    }
+    table,
+    td {
+      border-collapse: collapse;
+      mso-table-lspace: 0pt;
+      mso-table-rspace: 0pt;
+    }
+    img {
+      border: 0;
+      height: auto;
+      line-height: 100%;
+      outline: none;
+      text-decoration: none;
+      -ms-interpolation-mode: bicubic;
+    }
+    p {
+      display: block;
+      margin: 13px 0;
+    }
+  &lt;/style&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (max-width:480px) {
+      @-ms-viewport {
+        width: 320px;
+      }
+      @viewport {
+        width: 320px;
+      }
+    }
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;!--[if mso]&gt;
+  &lt;xml&gt;
+    &lt;o:OfficeDocumentSettings&gt;
+      &lt;o:AllowPNG/&gt;
+      &lt;o:PixelsPerInch&gt;96&lt;/o:PixelsPerInch&gt;
+    &lt;/o:OfficeDocumentSettings&gt;
+  &lt;/xml&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if lte mso 11]&gt;
+  &lt;style type="text/css"&gt;
+    .outlook-group-fix { width:100% !important; }
+  &lt;/style&gt;
+  &lt;![endif]--&gt;
+  &lt;!--[if !mso]&gt;&lt;!--&gt;
+  &lt;link href="https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700" rel="stylesheet" type="text/css"&gt;
+  &lt;style type="text/css"&gt;
+    @import url(https://fonts.googleapis.com/css?family=Ubuntu:300,400,500,700);
+  &lt;/style&gt;
+  &lt;!--&lt;![endif]--&gt;
+  &lt;style type="text/css"&gt;
+    @media only screen and (min-width:480px) {
+      .mj-column-per-100 {
+        width: 100% !important;
+        max-width: 100%;
+      }
+    }
+    .overview-text {
+    font-size: 22px !important;
+    font-family: Avenir-Book, Avenir !important;
+    font-weight: normal !important;
+    color: #0F1358 !important;
+    line-height: 38px !important;
+}
+.overview-text-icon {
+    color: rgb(133, 224, 255);
+}
+.overview-divided {
+    background-image: initial;
+    background-color: rgb(57, 63, 65);
+}
+.overview-des {
+    margin-top: 21px;
+    display: flex;
+    justify-content: space-between;
+    align-items: center;
+}
+.overview-des-item {
+    background-image: initial;
+    background-color: rgba(16, 35, 153, 0.04);
+}
+.overview-des-item {
+    padding: 20px 32px;
+    background: rgba(14, 29, 128, 0.04);
+    border-radius: 4px;
+    display: flex;
+    justify-content: space-between;
+    align-items: center;
+    flex: 1;
+    width: 318px;
+}
+.overview-des-item-splice {
+    width: 33.3%;
+}
+.overview-des-item-splice-p1 {
+    color: rgba(239, 255, 255, 0.65) !important;
+}
+.overview-des-item-splice-p1 {
+    font-size: 14px !important;
+    font-family: PingFangSC-Regular, PingFang SC !important;
+    font-weight: 400 !important;
+    color: rgba(15, 19, 88, 0.65) !important;
+    line-height: 22px !important;
+    white-space: nowrap !important;
+}
+.overview-des-item-splice-p2 {
+    color: rgb(239, 255, 255) !important;
+}
+.overview-des-item-splice-p2 {
+    margin-top: 2px !important;
+    font-size: 16px !important;
+    font-family: PingFangSC-Regular, PingFang SC !important;
+    font-weight: 400 !important;
+    color: #0F1358 !important;
+    line-height: 28px !important;
+    white-space: nowrap !important;
+    overflow: hidden !important;
+    text-overflow: ellipsis !important;
+}
+  &lt;/style&gt;
+  &lt;style type="text/css"&gt;
+  &lt;/style&gt;
+&lt;/head&gt;&lt;body&gt;&lt;div style=""&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;table
+          align="center" border="0" cellpadding="0" cellspacing="0" class="" style="width:782px;" width="782"
+  &gt;
+    &lt;tr&gt;
+      &lt;td style="line-height:0px;font-size:0px;mso-line-height-rule:exactly;"&gt;
+  &lt;![endif]--&gt;
+  &lt;div style="Margin:0px auto;max-width:782px;"&gt;
+    &lt;table align="center" border="0" cellpadding="0" cellspacing="0" role="presentation" style="width:100%;"&gt;
+      &lt;tbody&gt;
+      &lt;tr&gt;
+        &lt;td style="direction:ltr;font-size:0px;padding:20px 0;text-align:center;vertical-align:top;"&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;table role="presentation" border="0" cellpadding="0" cellspacing="0"&gt;
+            &lt;tr&gt;
+              &lt;td
+                      class="" style="vertical-align:top;width:782px;"
+              &gt;
+          &lt;![endif]--&gt;
+          &lt;div class="mj-column-per-100 outlook-group-fix" style="font-size:13px;text-align:left;direction:ltr;display:inline-block;vertical-align:top;width:100%;"&gt;
+            &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+              &lt;tbody&gt;&lt;tr&gt;
+                &lt;td align="left" style="padding: 10px 25px; word-break: break-word;"&gt;
+                  &lt;div style="line-height: 1; text-align: left;"&gt;
+                    &lt;div style="width: 782px; background: rgb(255, 255, 255); margin: 0px auto;"&gt;
+                      &lt;div style="margin-top: 60px;color: rgb(0, 0, 0);font-family: Ubuntu, Helvetica, Arial, sans-serif;font-size: 13px;height: 55px;background-color: rgb(255, 255, 255);"&gt;
+                        &lt;table style="width: 100%;"&gt;
+                          &lt;tbody&gt;&lt;tr&gt;
+                            &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
+                              &lt;table style="width: 100%;"&gt;
+                                &lt;tbody&gt;&lt;tr&gt;
+                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                              &lt;/tbody&gt;&lt;/table&gt;
+                            &lt;/td&gt;&lt;td&gt;
+                            &lt;/td&gt;
+                          &lt;/tr&gt;
+                        &lt;/tbody&gt;&lt;/table&gt;
+                      &lt;/div&gt;
+                      &lt;div style="border-width: 1px 0px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-top-style: solid;border-top-color: #D9E6F2;border-radius: 2px;background: rgb(255, 255, 255);"&gt;
+                        &lt;div style="margin: 0px 10px"&gt;
+                          &lt;p style="color: #0F1358;font-family: PingFangSC-Regular;font-size: 14px;text-align: justify;margin-bottom: 0px;margin-top: 0px; line-height: 24px; padding-top: 20px;"&gt;您好，项目【${projectName}】，流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。&lt;/p&gt;
+                        &lt;/div&gt;
+                        &lt;div class="mj-column-per-100 outlook-group-fix" style="color: rgb(0, 0, 0); font-family: Ubuntu, Helvetica, Arial, sans-serif; font-size: 13px; text-align: left; direction: ltr; display: inline-block; vertical-align: top; width: 100%;"&gt;
+                          &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="vertical-align:top;" width="100%"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
+                                &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+          查看详情
+                                    &lt;/a&gt; &lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;&lt;br&gt;
+                              &lt;/td&gt;
+                            &lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                        &lt;br&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;border-bottom-style: solid;border-bottom-color: #D9E6F2;border-width: 1px;"&gt;
+                        &lt;div style="text-align: justify;"&gt;
+                          &lt;table style="height: 148px;width: 100%;"&gt;
+                            &lt;tbody&gt;&lt;tr&gt;
+                              &lt;td&gt;
+                                &lt;div style="/* padding-top: 1px; */margin-left: 10px;/* height: 90px; *//* margin-top: 28px; */vertical-align: top;"&gt;
+                                  &lt;p style="
+      font-size: 13px;
+      color: rgba(15,19,88,0.80);
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;
+      border-width: 1px;
+      "&gt; 此邮件为系统邮件，请勿回复。 &lt;/p&gt;
+                                  &lt;p style="
+      font-size: 13px;
+      color: rgba(15,19,88,0.80);
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;
+      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 13px;
+      color: rgba(15,19,88,0.80);
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+                                  &lt;p style="font-size: 13px;
+      color: rgba(15,19,88,0.80);
+      letter-spacing: 0;
+      text-align: left;
+      margin-bottom: 6px;
+          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+                                &lt;/div&gt;
+                              &lt;/td&gt;
+                            &lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                                &lt;table&gt;
+                                  &lt;tbody&gt;&lt;tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                  &lt;tr&gt;
+                                    &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
+                                  &lt;/tr&gt;
+                                &lt;/tbody&gt;&lt;/table&gt;
+                              &lt;/td&gt;&lt;/tr&gt;
+                          &lt;/tbody&gt;&lt;/table&gt;
+                        &lt;/div&gt;
+                      &lt;/div&gt;
+                      &lt;div style="color: rgb(0, 0, 0);font-family: PingFangSC-Regular;font-size: 13px;width: 782px;height: 34px;"&gt;
+                        &lt;p style="
+      opacity: 0.8;
+      font-size: 10px;
+      color: rgba(15,19,88,0.65);
+      text-align: center;
+      display: inline-block;
+      line-height: 34px;
+      width: 100%;
+      margin: 0 auto;
+      "&gt;Copyright © The Choerodon Author. All rights reserved.&lt;/p&gt;
+                      &lt;/div&gt;
+                    &lt;/div&gt;
+                  &lt;/div&gt;
+                &lt;/td&gt;
+              &lt;/tr&gt;
+            &lt;/tbody&gt;&lt;/table&gt;
+          &lt;/div&gt;
+          &lt;!--[if mso | IE]&gt;
+          &lt;/td&gt;
+          &lt;/tr&gt;
+          &lt;/table&gt;
+          &lt;![endif]--&gt;
+        &lt;/td&gt;
+      &lt;/tr&gt;
+      &lt;/tbody&gt;
+    &lt;/table&gt;&lt;br&gt;
+  &lt;/div&gt;
+  &lt;!--[if mso | IE]&gt;
+  &lt;/td&gt;
+  &lt;/tr&gt;
+  &lt;/table&gt;
+  &lt;![endif]--&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>消息模板参数</t>
+  </si>
+  <si>
+    <t>hmsg_template_arg</t>
+  </si>
+  <si>
+    <t>*arg_id</t>
+  </si>
+  <si>
+    <t>#template_id</t>
+  </si>
+  <si>
+    <t>#arg_name</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
+  </si>
+  <si>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>pipelineName</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>taskName</t>
+  </si>
+  <si>
+    <t>successRate</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_web</t>
+    </r>
+  </si>
+  <si>
+    <t>projectName</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>costTime</t>
+  </si>
+  <si>
+    <t>caseCount</t>
+  </si>
+  <si>
+    <t>successCount</t>
+  </si>
+  <si>
+    <t>failedCount</t>
+  </si>
+  <si>
+    <t>link_web</t>
+  </si>
+  <si>
+    <t>发送配置</t>
+  </si>
+  <si>
+    <t>hmsg_template_server</t>
+  </si>
+  <si>
+    <t>*temp_server_id</t>
+  </si>
+  <si>
+    <t>#message_code</t>
+  </si>
+  <si>
+    <t>message_name:zh_CN</t>
+  </si>
+  <si>
+    <t>message_name:en_US</t>
+  </si>
+  <si>
+    <t>category_code</t>
+  </si>
+  <si>
+    <t>subcategory_code</t>
+  </si>
+  <si>
+    <t>receive_config_flag</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-1</t>
+  </si>
+  <si>
+    <t>PIPELINE_API_TEST_WARNING</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>STREAM-CHANGE-NOTICE</t>
+  </si>
+  <si>
+    <t>hmsg_template_server-2</t>
+  </si>
+  <si>
+    <t>PIPELINE_API_TEST_SUITE_WARNING</t>
+  </si>
+  <si>
+    <t>Choerodon流水线-API测试套件告警</t>
+  </si>
+  <si>
+    <t>发送配置(邮箱)</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line</t>
+  </si>
+  <si>
+    <t>*temp_server_line_id</t>
+  </si>
+  <si>
+    <t>#temp_server_id</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>template_code</t>
+  </si>
+  <si>
+    <t>server_id</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>server_code</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hmsg_template_server_line-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hmsg_template_server_line-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>CHOERODON-EMAIL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hmsg_template_server_line-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hmsg_template_server_line-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <t>notify_message_setting_config</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#edit</t>
+  </si>
+  <si>
+    <t>#TENANT_ID</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notify_message_setting_config-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>notify_message_setting_config-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>邮箱服务</t>
+  </si>
+  <si>
+    <t>hmsg_email_server</t>
+  </si>
+  <si>
+    <t>*server_id</t>
+  </si>
+  <si>
+    <t>#server_code</t>
+  </si>
+  <si>
+    <t>server_name</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>try_times</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password_encrypted</t>
+  </si>
+  <si>
+    <t>sender</t>
+  </si>
+  <si>
+    <t>filter_strategy</t>
+  </si>
+  <si>
+    <t>hmsg_email_server-9</t>
+  </si>
+  <si>
+    <t>平台默认邮箱设置</t>
+  </si>
+  <si>
+    <t>smtp.164.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>smtp</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>eg:hzero@163.com</t>
+  </si>
+  <si>
+    <t>邮箱服务配置</t>
+  </si>
+  <si>
+    <t>hmsg_email_property</t>
+  </si>
+  <si>
+    <t>*property_id</t>
+  </si>
+  <si>
+    <t>#server_id</t>
+  </si>
+  <si>
+    <t>#property_code</t>
+  </si>
+  <si>
+    <t>property_value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2673,25 +3048,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2700,16 +3081,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2729,6 +3110,163 @@
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2773,27 +3311,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2824,8 +3343,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2837,28 +3542,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2883,12 +3572,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2897,13 +3595,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2918,6 +3614,15 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2926,12 +3631,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2962,9 +3909,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2972,72 +3928,116 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3110,9 +4110,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3370,169 +4367,171 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" customWidth="1"/>
-    <col min="14" max="1025" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="17"/>
-      <c r="C1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="28"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="41" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" ht="19">
-      <c r="C4" s="43" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="18" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="20" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" ht="57">
-      <c r="C9" s="22" t="s">
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57">
-      <c r="C10" s="24" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="76">
-      <c r="C11" s="20" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19">
-      <c r="C12" s="20" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" ht="38">
-      <c r="C15" s="25" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -3544,101 +4543,102 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="27" t="s">
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="27" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="27" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="27" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="29" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="21" t="s">
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="41"/>
-    </row>
-    <row r="27" spans="3:5" ht="57">
-      <c r="C27" s="30" t="s">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="47" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="8"/>
-    <col min="5" max="5" width="23.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="42.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="4" width="8.85185185185185" style="8"/>
+    <col min="5" max="5" width="23.8518518518519" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.3333333333333" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.6666666666667" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.5555555555556" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.8518518518519" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.1407407407407" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.1407407407407" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.5703703703704" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.1407407407407" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.85185185185185" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -3652,7 +4652,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="5:7">
       <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
@@ -3716,7 +4716,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1">
+    <row r="8" ht="16.5" customHeight="1" spans="4:17">
       <c r="D8" s="9"/>
       <c r="E8" s="7" t="s">
         <v>67</v>
@@ -3730,7 +4730,7 @@
       <c r="H8" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="16" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="8" t="s">
@@ -3749,7 +4749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
+    <row r="9" ht="18.75" customHeight="1" spans="5:17">
       <c r="E9" s="7" t="s">
         <v>74</v>
       </c>
@@ -3762,8 +4762,8 @@
       <c r="H9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="45" t="s">
-        <v>161</v>
+      <c r="I9" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>71</v>
@@ -3781,110 +4781,138 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
-      <c r="F10" s="7"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="8" t="s">
+    <row r="10" ht="18.75" customHeight="1" spans="5:17">
+      <c r="E10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" customHeight="1" spans="5:17">
+      <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" customHeight="1" spans="6:8">
+      <c r="F12" s="7"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="E12" s="8" t="s">
+      <c r="F13" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="8" t="str">
-        <f>E8</f>
-        <v>hmsg_message_template-1</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="E13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="8" t="str">
-        <f>E8</f>
-        <v>hmsg_message_template-1</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="I13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="J13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11">
       <c r="E14" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F14" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>92</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11">
       <c r="E15" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F15" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="J15" s="8">
         <v>0</v>
@@ -3893,16 +4921,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="5:11">
       <c r="E16" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F16" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
+      <c r="G16" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="J16" s="8">
         <v>0</v>
@@ -3913,234 +4941,521 @@
     </row>
     <row r="17" spans="5:11">
       <c r="E17" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F17" s="8" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
+      <c r="E18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="8" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11">
+      <c r="E19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11">
-      <c r="E18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="8" t="str">
+      <c r="G19" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
+      <c r="E20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11">
-      <c r="E19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="8" t="str">
+      <c r="G20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11">
+      <c r="E21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11">
-      <c r="E20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="8" t="str">
+      <c r="G21" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14">
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11">
+      <c r="E22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11">
-      <c r="E21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="8" t="str">
+      <c r="G22" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14">
+        <v>0</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11">
-      <c r="E22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="8" t="str">
+      <c r="G23" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11">
+      <c r="E24" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11">
-      <c r="E23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="8" t="str">
+      <c r="G24" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14">
+        <v>0</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11">
+      <c r="E25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11">
-      <c r="E24" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="8" t="str">
+      <c r="G25" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11">
+      <c r="E26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11">
-      <c r="E25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="8" t="str">
+      <c r="G26" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14">
+        <v>0</v>
+      </c>
+      <c r="K26" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11">
+      <c r="E27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11">
-      <c r="E26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="8" t="str">
+      <c r="G27" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11">
+      <c r="E28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11">
-      <c r="E27" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="8" t="str">
+      <c r="G28" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14">
+        <v>0</v>
+      </c>
+      <c r="K28" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11">
+      <c r="E29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G29" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14">
+        <v>0</v>
+      </c>
+      <c r="K29" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11">
+      <c r="E30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="15" t="str">
+        <f>E10</f>
+        <v>hmsg_message_template-3</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11">
+      <c r="E31" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f>E10</f>
+        <v>hmsg_message_template-3</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11">
+      <c r="E32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="15" t="str">
+        <f>E10</f>
+        <v>hmsg_message_template-3</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11">
+      <c r="E33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="15" t="str">
+        <f>E10</f>
+        <v>hmsg_message_template-3</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11">
+      <c r="E34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="15" t="str">
+        <f>E10</f>
+        <v>hmsg_message_template-3</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11">
+      <c r="E35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="15" t="str">
+        <f>E10</f>
+        <v>hmsg_message_template-3</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11">
+      <c r="E36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="8" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-4</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11">
+      <c r="E37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="8" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-4</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11">
+      <c r="E38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="8" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-4</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J38" s="15">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11">
+      <c r="E39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="8" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-4</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11">
+      <c r="E40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="8" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-4</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="J40" s="15">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11">
+      <c r="E41" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="8" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-4</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="14">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.7111111111111" customWidth="1"/>
+    <col min="3" max="3" width="16.2814814814815" customWidth="1"/>
+    <col min="4" max="4" width="21.1407407407407" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.7111111111111" customWidth="1"/>
+    <col min="8" max="8" width="32.2222222222222" customWidth="1"/>
+    <col min="9" max="9" width="30.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="20.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="13.5703703703704" customWidth="1"/>
+    <col min="12" max="12" width="13.7111111111111" customWidth="1"/>
+    <col min="13" max="13" width="23.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="12.5703703703704" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4154,7 +5469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4173,48 +5488,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="20.25" customHeight="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="1" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -4223,22 +5538,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
@@ -4247,165 +5562,245 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="20.25" customHeight="1">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
+    <row r="9" ht="20.25" customHeight="1" spans="5:15">
+      <c r="E9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" ht="20.25" customHeight="1" spans="5:15">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="D11" s="1"/>
-      <c r="E11" s="5" t="s">
+      <c r="C11" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="D11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12">
+      <c r="D12" s="1"/>
+      <c r="E12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="3" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
-      <c r="G11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="E12" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" t="str">
+      <c r="I12" s="4"/>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12">
+      <c r="E13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I13" t="str">
         <f>邮箱服务配置!E8</f>
         <v>hmsg_email_server-9</v>
       </c>
-      <c r="K12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
+      <c r="E14" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="str">
+        <f>E9</f>
+        <v>hmsg_template_server-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="str">
+        <f>邮箱服务配置!E8</f>
+        <v>hmsg_email_server-9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>50</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="E15" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15">
+      <c r="C17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.1407407407407" customWidth="1"/>
+    <col min="6" max="6" width="21.1407407407407" customWidth="1"/>
+    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -4419,7 +5814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4432,133 +5827,133 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="N7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18">
       <c r="E8" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="I8" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M8" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="N8" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -2322,13 +2322,13 @@
     <t>hmsg_message_template-3</t>
   </si>
   <si>
-    <t>DEVOPS.PIPELINE_API_TEST_SUITE_WARNING.WEB</t>
+    <t>DEVOPS.PIPELINE_API_SUITE_WARNING.WEB</t>
   </si>
   <si>
     <t>hmsg_message_template-4</t>
   </si>
   <si>
-    <t>DEVOPS.PIPELINE_API_TEST_SUITE_WARNING.EMAIL</t>
+    <t>DEVOPS.PIPELINE_API_SUITE_WARNING.EMAIL</t>
   </si>
   <si>
     <t>&lt;title&gt; &lt;/title&gt;
@@ -2769,7 +2769,7 @@
     <t>hmsg_template_server-2</t>
   </si>
   <si>
-    <t>PIPELINE_API_TEST_SUITE_WARNING</t>
+    <t>PIPELINE_API_SUITE_WARNING</t>
   </si>
   <si>
     <t>Choerodon流水线-API测试套件告警</t>
@@ -3032,10 +3032,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -3119,21 +3119,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3141,7 +3126,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3155,14 +3140,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3170,7 +3170,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3194,9 +3202,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3215,11 +3223,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3231,7 +3239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3239,23 +3246,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3345,7 +3345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3357,13 +3357,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3375,73 +3495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3459,73 +3525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3632,6 +3632,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3643,45 +3652,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3710,11 +3680,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3732,148 +3732,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4619,8 +4619,8 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="17.25"/>
@@ -5435,7 +5435,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5446,7 +5446,7 @@
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="11.7111111111111" customWidth="1"/>
-    <col min="8" max="8" width="32.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="42.7777777777778" customWidth="1"/>
     <col min="9" max="9" width="30.4444444444444" customWidth="1"/>
     <col min="10" max="10" width="20.2814814814815" customWidth="1"/>
     <col min="11" max="11" width="13.5703703703704" customWidth="1"/>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3032,9 +3032,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -3119,20 +3119,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3147,22 +3133,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3176,22 +3169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3201,10 +3178,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3239,6 +3216,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -3248,14 +3241,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3264,6 +3257,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3345,13 +3345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3363,61 +3375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,49 +3387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,25 +3399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3519,13 +3417,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3632,15 +3632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3652,30 +3643,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3698,8 +3665,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3719,6 +3695,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3732,148 +3732,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4619,13 +4619,14 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="4" width="8.85185185185185" style="8"/>
+    <col min="1" max="3" width="8.85185185185185" style="8"/>
+    <col min="4" max="4" width="21.5555555555556" style="8" customWidth="1"/>
     <col min="5" max="5" width="23.8518518518519" style="8" customWidth="1"/>
     <col min="6" max="6" width="46.3333333333333" style="8" customWidth="1"/>
     <col min="7" max="7" width="27.6666666666667" style="8" customWidth="1"/>
@@ -5434,8 +5435,8 @@
   <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -5711,6 +5712,10 @@
     <row r="15" spans="5:9">
       <c r="E15" s="5" t="s">
         <v>140</v>
+      </c>
+      <c r="F15" t="str">
+        <f>E9</f>
+        <v>hmsg_template_server-2</v>
       </c>
       <c r="G15" t="s">
         <v>137</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3126,6 +3126,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3133,7 +3141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3141,6 +3149,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3161,11 +3176,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3178,7 +3200,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3209,6 +3239,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -3218,45 +3256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3345,13 +3345,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3363,25 +3417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3393,7 +3429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3405,13 +3447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3423,7 +3483,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3435,85 +3513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3525,7 +3525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3647,25 +3647,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3674,8 +3661,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3691,6 +3678,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3713,19 +3715,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3735,10 +3735,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3747,133 +3747,133 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4379,22 +4379,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.2814814814815" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.2814814814815" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5694444444444" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.2847222222222" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
+    <col min="4" max="4" width="35.2847222222222" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
+    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
+    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
-    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
+    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
+    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
+    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -4408,7 +4408,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" ht="18" spans="5:5">
+    <row r="2" spans="5:5">
       <c r="E2" s="23"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4422,7 +4422,7 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" ht="18" spans="3:7">
+    <row r="4" spans="3:7">
       <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
+    <row r="7" spans="3:5">
       <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" ht="51.75" spans="3:6">
+    <row r="9" ht="52.2" spans="3:6">
       <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
+    <row r="10" ht="52.2" spans="3:5">
       <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
+    <row r="11" ht="69.6" spans="3:5">
       <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
     </row>
-    <row r="15" ht="34.5" spans="3:5">
+    <row r="15" ht="34.8" spans="3:5">
       <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" ht="18" spans="3:4">
+    <row r="20" spans="3:4">
       <c r="C20" s="45" t="s">
         <v>31</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
+    <row r="21" spans="3:4">
       <c r="C21" s="45" t="s">
         <v>33</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
+    <row r="22" spans="3:4">
       <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
+    <row r="23" spans="3:4">
       <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" ht="51.75" spans="3:3">
+    <row r="27" ht="52.2" spans="3:3">
       <c r="C27" s="47" t="s">
         <v>43</v>
       </c>
@@ -4623,20 +4623,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.85416666666667" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="3" width="8.85185185185185" style="8"/>
+    <col min="1" max="3" width="8.85416666666667" style="8"/>
     <col min="4" max="4" width="21.5555555555556" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.8518518518519" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23.8541666666667" style="8" customWidth="1"/>
     <col min="6" max="6" width="46.3333333333333" style="8" customWidth="1"/>
     <col min="7" max="7" width="27.6666666666667" style="8" customWidth="1"/>
     <col min="8" max="8" width="28.5555555555556" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.8518518518519" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.1407407407407" style="8" customWidth="1"/>
-    <col min="11" max="11" width="25.1407407407407" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.5703703703704" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.1407407407407" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.85185185185185" style="8"/>
+    <col min="9" max="9" width="15.8541666666667" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.1388888888889" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.1388888888889" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.5694444444444" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.1388888888889" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.85416666666667" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5435,25 +5435,25 @@
   <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
   <cols>
-    <col min="1" max="1" width="15.7111111111111" customWidth="1"/>
-    <col min="3" max="3" width="16.2814814814815" customWidth="1"/>
-    <col min="4" max="4" width="21.1407407407407" customWidth="1"/>
+    <col min="1" max="1" width="15.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.2847222222222" customWidth="1"/>
+    <col min="4" max="4" width="21.1388888888889" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="11.7111111111111" customWidth="1"/>
+    <col min="7" max="7" width="11.7083333333333" customWidth="1"/>
     <col min="8" max="8" width="42.7777777777778" customWidth="1"/>
     <col min="9" max="9" width="30.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="20.2814814814815" customWidth="1"/>
-    <col min="11" max="11" width="13.5703703703704" customWidth="1"/>
-    <col min="12" max="12" width="13.7111111111111" customWidth="1"/>
+    <col min="10" max="10" width="20.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="13.5694444444444" customWidth="1"/>
+    <col min="12" max="12" width="13.7083333333333" customWidth="1"/>
     <col min="13" max="13" width="23.5555555555556" customWidth="1"/>
-    <col min="14" max="14" width="12.5703703703704" customWidth="1"/>
+    <col min="14" max="14" width="12.5694444444444" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:8">
+    <row r="14" spans="5:12">
       <c r="E14" s="5" t="s">
         <v>139</v>
       </c>
@@ -5708,8 +5708,11 @@
       <c r="H14" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="5:9">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12">
       <c r="E15" s="5" t="s">
         <v>140</v>
       </c>
@@ -5726,6 +5729,9 @@
       <c r="I15" t="str">
         <f>邮箱服务配置!E8</f>
         <v>hmsg_email_server-9</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5798,11 +5804,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
   <cols>
-    <col min="5" max="5" width="23.1407407407407" customWidth="1"/>
-    <col min="6" max="6" width="21.1407407407407" customWidth="1"/>
-    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
+    <col min="4" max="4" width="22.8333333333333" customWidth="1"/>
+    <col min="5" max="5" width="23.1388888888889" customWidth="1"/>
+    <col min="6" max="6" width="21.1388888888889" customWidth="1"/>
+    <col min="8" max="8" width="14.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -2160,8 +2160,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2248,33 +2248,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -2510,8 +2510,8 @@
                             &lt;td style="padding-bottom: 10px;vertical-align: bottom;"&gt;
                               &lt;table style="width: 100%;"&gt;
                                 &lt;tbody&gt;&lt;tr&gt;
-                                  &lt;td style="width:160px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/choerodon-logo.png" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
-                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼数智化效能平台&lt;/td&gt;&lt;/tr&gt;
+                                  &lt;td style="width:238px;"&gt; &lt;img height="auto" src="https://file.choerodon.com.cn/static/zknow-logo.jpg" style="border:0;display:block;outline:none;text-decoration:none;height:auto;width:100%;" width="190"&gt; &lt;/td&gt;
+                                &lt;td style="text-align: right;vertical-align: middle;font-family: PingFangSC-Regular;padding-right: 0px;font-size: 14px;color: rgba(15,19,88,0.65);"&gt; 猪齿鱼 数智化开发管理平台&lt;/td&gt;&lt;/tr&gt;
                               &lt;/tbody&gt;&lt;/table&gt;
                             &lt;/td&gt;&lt;td&gt;
                             &lt;/td&gt;
@@ -2561,33 +2561,33 @@
       text-align: left;
       margin-bottom: 6px;
       margin-top: 0;
-      "&gt; 如果您需要了解猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="http://choerodon.io/zh/" target="_blank"&gt;猪齿鱼官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
+      "&gt; 如果您还尚未掌握Choerodon猪齿鱼的功能和操作，可以访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://zhuchiyu.zknow.com/" target="_blank"&gt;Choerodon官网&lt;/a&gt; 或 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://open.hand-china.com/document-center/doc/product/10177/10419" target="_blank"&gt;帮助文档&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;猪齿鱼论坛&lt;/a&gt;。 &lt;/p&gt;
+      margin-top: 0;"&gt; 如果您需要任何帮助或者提供反馈, 请访问 &lt;a style="text-decoration:none;font-size: 12px;color: #5365EA;" href="https://openforum.hand-china.com/" target="_blank"&gt;Choerodon论坛&lt;/a&gt;。 &lt;/p&gt;
                                   &lt;p style="font-size: 13px;
       color: rgba(15,19,88,0.80);
       letter-spacing: 0;
       text-align: left;
       margin-bottom: 6px;
-          margin-top: 0;"&gt;您也可以通过发送邮件的方式与我们联系：&lt;a href="mailto:zhuchiyu@vip.hand-china.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;zhuchiyu@vip.hand-china.com&lt;/a&gt;。 &lt;/p&gt;
+          margin-top: 0;"&gt;您也可以通过以下方式与我们联系：官方邮箱 &lt;a href="mailto:marketing@zknow.com" style="text-decoration:none;font-size: 12px;color: #5365EA;"  target="_blank" rel="noopener  norefferrer"&gt;marketing@zknow.com&lt;/a&gt;，咨询热线 400 800 2077&lt;/p&gt;
                                 &lt;/div&gt;
                               &lt;/td&gt;
-                            &lt;td style="padding-left: 29px;"&gt;
+                            &lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-xzs.png"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/xiaozhushou.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;官方小助手&lt;/td&gt;
                                   &lt;/tr&gt;
                                 &lt;/tbody&gt;&lt;/table&gt;
-                              &lt;/td&gt;&lt;td style="padding-left: 29px;"&gt;
+                              &lt;/td&gt;&lt;td style="padding-left: 19px;"&gt;
                                 &lt;table&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/wechat-code.jpg"&gt; &lt;/td&gt;&lt;/tr&gt;
+                                    &lt;td&gt; &lt;img height="auto" style="border: 1px solid #D9E6F2;display:block;outline:none;text-decoration:none;height:80px;width:80px;" src="https://file.choerodon.com.cn/static/gongzhonghao.png"&gt; &lt;/td&gt;&lt;/tr&gt;
                                   &lt;tr&gt;
                                     &lt;td style="text-align: center;font-family: PingFangSC-Regular;font-size: 13px;color: rgba(15,19,88,0.65);"&gt;微信公众号&lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3032,9 +3032,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -3121,28 +3121,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -3157,7 +3135,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3170,7 +3148,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3184,46 +3176,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3247,10 +3224,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3263,7 +3247,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3345,13 +3345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3375,13 +3369,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3393,25 +3405,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3429,19 +3441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3459,7 +3465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3471,31 +3483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3507,25 +3495,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3649,11 +3649,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3661,8 +3674,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3682,17 +3695,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3714,166 +3721,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4379,22 +4379,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5694444444444" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.2847222222222" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.1388888888889" customWidth="1"/>
-    <col min="4" max="4" width="35.2847222222222" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5694444444444" customWidth="1"/>
-    <col min="6" max="6" width="23.4236111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.5694444444444" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5694444444444" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1388888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.5694444444444" customWidth="1"/>
-    <col min="13" max="13" width="13.1388888888889" customWidth="1"/>
-    <col min="14" max="1025" width="10.2847222222222" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -4408,7 +4408,7 @@
       <c r="G1" s="22"/>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="5:5">
+    <row r="2" ht="18" spans="5:5">
       <c r="E2" s="23"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
@@ -4422,7 +4422,7 @@
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="3:7">
+    <row r="4" ht="18" spans="3:7">
       <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" ht="18" spans="3:5">
       <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="E8" s="35"/>
     </row>
-    <row r="9" ht="52.2" spans="3:6">
+    <row r="9" ht="51.75" spans="3:6">
       <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="52.2" spans="3:5">
+    <row r="10" ht="51.75" spans="3:5">
       <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69.6" spans="3:5">
+    <row r="11" ht="69" spans="3:5">
       <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="D14" s="34"/>
       <c r="E14" s="35"/>
     </row>
-    <row r="15" ht="34.8" spans="3:5">
+    <row r="15" ht="34.5" spans="3:5">
       <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
@@ -4543,7 +4543,7 @@
       <c r="D19" s="44"/>
       <c r="E19" s="44"/>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" ht="18" spans="3:4">
       <c r="C20" s="45" t="s">
         <v>31</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" ht="18" spans="3:4">
       <c r="C21" s="45" t="s">
         <v>33</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" ht="18" spans="3:4">
       <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" ht="18" spans="3:4">
       <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" ht="52.2" spans="3:3">
+    <row r="27" ht="51.75" spans="3:3">
       <c r="C27" s="47" t="s">
         <v>43</v>
       </c>
@@ -4619,24 +4619,24 @@
   <sheetPr/>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85416666666667" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="3" width="8.85416666666667" style="8"/>
+    <col min="1" max="3" width="8.85185185185185" style="8"/>
     <col min="4" max="4" width="21.5555555555556" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.8541666666667" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23.8518518518519" style="8" customWidth="1"/>
     <col min="6" max="6" width="46.3333333333333" style="8" customWidth="1"/>
     <col min="7" max="7" width="27.6666666666667" style="8" customWidth="1"/>
     <col min="8" max="8" width="28.5555555555556" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.8541666666667" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.1388888888889" style="8" customWidth="1"/>
-    <col min="11" max="11" width="25.1388888888889" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.5694444444444" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.1388888888889" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.85416666666667" style="8"/>
+    <col min="9" max="9" width="15.8518518518519" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.1407407407407" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.1407407407407" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.5703703703704" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.1407407407407" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.85185185185185" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5435,25 +5435,25 @@
   <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.7083333333333" customWidth="1"/>
-    <col min="3" max="3" width="16.2847222222222" customWidth="1"/>
-    <col min="4" max="4" width="21.1388888888889" customWidth="1"/>
+    <col min="1" max="1" width="15.7111111111111" customWidth="1"/>
+    <col min="3" max="3" width="16.2814814814815" customWidth="1"/>
+    <col min="4" max="4" width="21.1407407407407" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="11.7083333333333" customWidth="1"/>
+    <col min="7" max="7" width="11.7111111111111" customWidth="1"/>
     <col min="8" max="8" width="42.7777777777778" customWidth="1"/>
     <col min="9" max="9" width="30.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="20.2847222222222" customWidth="1"/>
-    <col min="11" max="11" width="13.5694444444444" customWidth="1"/>
-    <col min="12" max="12" width="13.7083333333333" customWidth="1"/>
+    <col min="10" max="10" width="20.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="13.5703703703704" customWidth="1"/>
+    <col min="12" max="12" width="13.7111111111111" customWidth="1"/>
     <col min="13" max="13" width="23.5555555555556" customWidth="1"/>
-    <col min="14" max="14" width="12.5694444444444" customWidth="1"/>
+    <col min="14" max="14" width="12.5703703703704" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5804,12 +5804,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="22.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="23.1388888888889" customWidth="1"/>
-    <col min="6" max="6" width="21.1388888888889" customWidth="1"/>
-    <col min="8" max="8" width="14.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="22.837037037037" customWidth="1"/>
+    <col min="5" max="5" width="23.1407407407407" customWidth="1"/>
+    <col min="6" max="6" width="21.1407407407407" customWidth="1"/>
+    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="1"/>
+    <workbookView windowHeight="19420" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
   <si>
     <r>
       <rPr>
@@ -2632,6 +2632,21 @@
 &lt;/div&gt;</t>
   </si>
   <si>
+    <t>hmsg_message_template-5</t>
+  </si>
+  <si>
+    <t>DEVOPS.PIPELINE_API_TEST_WARNING.DT</t>
+  </si>
+  <si>
+    <t>流水线【${pipelineName}】中，API测试任务【${taskName}】执行成功率为：${successRate}%，低于设置阈值${threshold}%，请确定。[查看详情](${link_web})</t>
+  </si>
+  <si>
+    <t>hmsg_message_template-6</t>
+  </si>
+  <si>
+    <t>DEVOPS.PIPELINE_API_SUITE_WARNING.DT</t>
+  </si>
+  <si>
     <t>消息模板参数</t>
   </si>
   <si>
@@ -2892,6 +2907,15 @@
       </rPr>
       <t>4</t>
     </r>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-5</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>hmsg_template_server_line-6</t>
   </si>
   <si>
     <t>notify_message_setting_config</t>
@@ -3032,10 +3056,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -3095,6 +3119,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -3112,14 +3142,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3132,51 +3156,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3191,16 +3172,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3210,6 +3204,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3232,7 +3234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3240,14 +3242,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3261,9 +3279,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3345,13 +3369,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3363,13 +3399,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,25 +3447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3411,37 +3465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3459,13 +3483,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3477,55 +3543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3542,12 +3566,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3572,6 +3612,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -3580,26 +3633,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3614,21 +3647,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3657,6 +3699,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3673,33 +3730,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3718,165 +3753,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3931,112 +3955,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -4371,7 +4395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -4379,22 +4403,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.2814814814815" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
-    <col min="4" max="4" width="35.2814814814815" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5723684210526" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.2828947368421" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.1381578947368" customWidth="1"/>
+    <col min="4" max="4" width="35.2828947368421" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
+    <col min="6" max="6" width="23.4210526315789" customWidth="1"/>
+    <col min="7" max="7" width="21.5723684210526" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5723684210526" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
-    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="19.1381578947368" customWidth="1"/>
+    <col min="12" max="12" width="18.5723684210526" customWidth="1"/>
+    <col min="13" max="13" width="13.1381578947368" customWidth="1"/>
+    <col min="14" max="1025" width="10.2828947368421" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -4404,130 +4428,130 @@
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="23"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="35"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="26" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" ht="16" spans="3:7">
+      <c r="C4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="16" spans="1:3">
       <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="36" t="s">
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" ht="46" spans="3:6">
+      <c r="C9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="45" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="39" t="s">
+    <row r="10" ht="46" spans="3:5">
+      <c r="C10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="45" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="33" t="s">
+    <row r="11" ht="61" spans="3:5">
+      <c r="C11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="33" t="s">
+    <row r="12" ht="16" spans="3:5">
+      <c r="C12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="46" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="41" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" ht="31" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="47" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4536,39 +4560,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+    <row r="19" ht="16" spans="3:5">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="45" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" ht="16" spans="3:4">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="45" t="s">
+    <row r="21" ht="16" spans="3:4">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="45" t="s">
+    <row r="22" ht="16" spans="3:4">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="45" t="s">
+    <row r="23" ht="16" spans="3:4">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4576,25 +4600,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24"/>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="47" t="s">
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" ht="31" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4615,28 +4639,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="8.84868421052632" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="3" width="8.85185185185185" style="8"/>
-    <col min="4" max="4" width="21.5555555555556" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.8518518518519" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.3333333333333" style="8" customWidth="1"/>
-    <col min="7" max="7" width="27.6666666666667" style="8" customWidth="1"/>
-    <col min="8" max="8" width="28.5555555555556" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.8518518518519" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.1407407407407" style="8" customWidth="1"/>
-    <col min="11" max="11" width="25.1407407407407" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.5703703703704" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.1407407407407" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.85185185185185" style="8"/>
+    <col min="1" max="3" width="8.84868421052632" style="8"/>
+    <col min="4" max="4" width="21.5526315789474" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23.8486842105263" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.3355263157895" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.6644736842105" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.5526315789474" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.8486842105263" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.1381578947368" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.1381578947368" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.5723684210526" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.1381578947368" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.84868421052632" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4846,128 +4870,178 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" ht="18.75" customHeight="1" spans="6:8">
-      <c r="F12" s="7"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
+    <row r="12" s="8" customFormat="1" ht="16.5" customHeight="1" spans="4:17">
+      <c r="D12" s="9"/>
+      <c r="E12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" ht="18.75" customHeight="1" spans="5:17">
+      <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:17">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:17">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="F16" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="5:11">
-      <c r="E14" s="8" t="s">
+      <c r="G16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="8" t="str">
-        <f>E8</f>
-        <v>hmsg_message_template-1</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="5:11">
-      <c r="E15" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="8" t="str">
-        <f>E8</f>
-        <v>hmsg_message_template-1</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="5:11">
-      <c r="E16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="8" t="str">
-        <f>E8</f>
-        <v>hmsg_message_template-1</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="K16" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="5:11">
       <c r="E17" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F17" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="5:11">
       <c r="E18" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F18" s="8" t="str">
         <f>E8</f>
         <v>hmsg_message_template-1</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>97</v>
+      <c r="G18" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="J18" s="8">
         <v>0</v>
@@ -4978,74 +5052,68 @@
     </row>
     <row r="19" spans="5:11">
       <c r="E19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="14" t="str">
-        <f>E9</f>
-        <v>hmsg_message_template-2</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14">
-        <v>0</v>
-      </c>
-      <c r="K19" s="14">
+        <v>96</v>
+      </c>
+      <c r="F19" s="8" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:11">
       <c r="E20" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="14" t="str">
-        <f>E9</f>
-        <v>hmsg_message_template-2</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14">
-        <v>0</v>
-      </c>
-      <c r="K20" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11">
+        <v>96</v>
+      </c>
+      <c r="F20" s="8" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="16" spans="5:11">
       <c r="E21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="14" t="str">
-        <f>E9</f>
-        <v>hmsg_message_template-2</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14">
-        <v>0</v>
-      </c>
-      <c r="K21" s="14">
+        <v>96</v>
+      </c>
+      <c r="F21" s="8" t="str">
+        <f>E8</f>
+        <v>hmsg_message_template-1</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="5:11">
       <c r="E22" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F22" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
@@ -5058,14 +5126,14 @@
     </row>
     <row r="23" spans="5:11">
       <c r="E23" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F23" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -5078,7 +5146,7 @@
     </row>
     <row r="24" spans="5:11">
       <c r="E24" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F24" s="14" t="str">
         <f>E9</f>
@@ -5098,7 +5166,7 @@
     </row>
     <row r="25" spans="5:11">
       <c r="E25" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F25" s="14" t="str">
         <f>E9</f>
@@ -5118,7 +5186,7 @@
     </row>
     <row r="26" spans="5:11">
       <c r="E26" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F26" s="14" t="str">
         <f>E9</f>
@@ -5138,14 +5206,14 @@
     </row>
     <row r="27" spans="5:11">
       <c r="E27" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F27" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -5158,14 +5226,14 @@
     </row>
     <row r="28" spans="5:11">
       <c r="E28" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F28" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
@@ -5178,14 +5246,14 @@
     </row>
     <row r="29" spans="5:11">
       <c r="E29" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F29" s="14" t="str">
         <f>E9</f>
         <v>hmsg_message_template-2</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -5198,74 +5266,74 @@
     </row>
     <row r="30" spans="5:11">
       <c r="E30" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="15" t="str">
-        <f>E10</f>
-        <v>hmsg_message_template-3</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15">
-        <v>0</v>
-      </c>
-      <c r="K30" s="15">
+        <v>96</v>
+      </c>
+      <c r="F30" s="14" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14">
+        <v>0</v>
+      </c>
+      <c r="K30" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="5:11">
       <c r="E31" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="15" t="str">
-        <f>E10</f>
-        <v>hmsg_message_template-3</v>
+        <v>96</v>
+      </c>
+      <c r="F31" s="14" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15">
-        <v>0</v>
-      </c>
-      <c r="K31" s="15">
+        <v>108</v>
+      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14">
+        <v>0</v>
+      </c>
+      <c r="K31" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="5:11">
       <c r="E32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="15" t="str">
-        <f>E10</f>
-        <v>hmsg_message_template-3</v>
-      </c>
-      <c r="G32" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15">
-        <v>0</v>
-      </c>
-      <c r="K32" s="15">
+      <c r="F32" s="14" t="str">
+        <f>E9</f>
+        <v>hmsg_message_template-2</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14">
+        <v>0</v>
+      </c>
+      <c r="K32" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:11">
       <c r="E33" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F33" s="15" t="str">
         <f>E10</f>
         <v>hmsg_message_template-3</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
@@ -5278,14 +5346,14 @@
     </row>
     <row r="34" spans="5:11">
       <c r="E34" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F34" s="15" t="str">
         <f>E10</f>
         <v>hmsg_message_template-3</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>105</v>
+      <c r="G34" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
@@ -5298,35 +5366,37 @@
     </row>
     <row r="35" spans="5:11">
       <c r="E35" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F35" s="15" t="str">
         <f>E10</f>
         <v>hmsg_message_template-3</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="14">
-        <v>0</v>
-      </c>
-      <c r="K35" s="14">
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:11">
       <c r="E36" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="8" t="str">
-        <f>E11</f>
-        <v>hmsg_message_template-4</v>
+        <v>96</v>
+      </c>
+      <c r="F36" s="15" t="str">
+        <f>E10</f>
+        <v>hmsg_message_template-3</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>92</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="15">
         <v>0</v>
       </c>
@@ -5336,15 +5406,17 @@
     </row>
     <row r="37" spans="5:11">
       <c r="E37" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="8" t="str">
-        <f>E11</f>
-        <v>hmsg_message_template-4</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>94</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F37" s="15" t="str">
+        <f>E10</f>
+        <v>hmsg_message_template-3</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="15">
         <v>0</v>
       </c>
@@ -5354,32 +5426,34 @@
     </row>
     <row r="38" spans="5:11">
       <c r="E38" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="8" t="str">
-        <f>E11</f>
-        <v>hmsg_message_template-4</v>
+        <v>96</v>
+      </c>
+      <c r="F38" s="15" t="str">
+        <f>E10</f>
+        <v>hmsg_message_template-3</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J38" s="15">
-        <v>0</v>
-      </c>
-      <c r="K38" s="15">
+        <v>103</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="14">
+        <v>0</v>
+      </c>
+      <c r="K38" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="5:11">
       <c r="E39" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F39" s="8" t="str">
         <f>E11</f>
         <v>hmsg_message_template-4</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J39" s="15">
         <v>0</v>
@@ -5390,37 +5464,91 @@
     </row>
     <row r="40" spans="5:11">
       <c r="E40" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F40" s="8" t="str">
         <f>E11</f>
         <v>hmsg_message_template-4</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>105</v>
+      <c r="G40" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="J40" s="15">
         <v>0</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="5:11">
       <c r="E41" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F41" s="8" t="str">
         <f>E11</f>
         <v>hmsg_message_template-4</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J41" s="14">
+        <v>101</v>
+      </c>
+      <c r="J41" s="15">
         <v>0</v>
       </c>
       <c r="K41" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11">
+      <c r="E42" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42" s="8" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-4</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" s="15">
+        <v>0</v>
+      </c>
+      <c r="K42" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11">
+      <c r="E43" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="8" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-4</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11">
+      <c r="E44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="8" t="str">
+        <f>E11</f>
+        <v>hmsg_message_template-4</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J44" s="14">
+        <v>0</v>
+      </c>
+      <c r="K44" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5431,29 +5559,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="1" max="1" width="15.7111111111111" customWidth="1"/>
-    <col min="3" max="3" width="16.2814814814815" customWidth="1"/>
-    <col min="4" max="4" width="21.1407407407407" customWidth="1"/>
+    <col min="1" max="1" width="15.7105263157895" customWidth="1"/>
+    <col min="3" max="3" width="16.2828947368421" customWidth="1"/>
+    <col min="4" max="4" width="21.1381578947368" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="11.7111111111111" customWidth="1"/>
-    <col min="8" max="8" width="42.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="30.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="20.2814814814815" customWidth="1"/>
-    <col min="11" max="11" width="13.5703703703704" customWidth="1"/>
-    <col min="12" max="12" width="13.7111111111111" customWidth="1"/>
-    <col min="13" max="13" width="23.5555555555556" customWidth="1"/>
-    <col min="14" max="14" width="12.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="30.7763157894737" customWidth="1"/>
+    <col min="7" max="7" width="11.7105263157895" customWidth="1"/>
+    <col min="8" max="8" width="42.7763157894737" customWidth="1"/>
+    <col min="9" max="9" width="30.4473684210526" customWidth="1"/>
+    <col min="10" max="10" width="20.2828947368421" customWidth="1"/>
+    <col min="11" max="11" width="13.5723684210526" customWidth="1"/>
+    <col min="12" max="12" width="13.7105263157895" customWidth="1"/>
+    <col min="13" max="13" width="23.5526315789474" customWidth="1"/>
+    <col min="14" max="14" width="12.5723684210526" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5489,48 +5617,48 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
         <v>64</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="20.25" customHeight="1" spans="5:15">
       <c r="E8" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -5539,22 +5667,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>69</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N8" s="5">
         <v>1</v>
@@ -5565,7 +5693,7 @@
     </row>
     <row r="9" ht="20.25" customHeight="1" spans="5:15">
       <c r="E9" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F9" s="5">
         <v>0</v>
@@ -5574,28 +5702,28 @@
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I9" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="K9" s="8">
         <v>1</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N9" s="5">
         <v>1</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" ht="20.25" customHeight="1" spans="5:15">
@@ -5619,47 +5747,47 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" ht="16" spans="4:12">
       <c r="D12" s="1"/>
       <c r="E12" s="5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>68</v>
@@ -5669,16 +5797,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:12">
+    <row r="13" ht="16" spans="5:12">
       <c r="E13" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F13" t="str">
         <f>E8</f>
         <v>hmsg_template_server-1</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>75</v>
@@ -5688,22 +5816,22 @@
         <v>hmsg_email_server-9</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:12">
+    <row r="14" ht="16" spans="5:12">
       <c r="E14" s="5" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F14" t="str">
         <f>E9</f>
         <v>hmsg_template_server-2</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>78</v>
@@ -5712,16 +5840,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="5:12">
+    <row r="15" ht="16" spans="5:12">
       <c r="E15" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F15" t="str">
         <f>E9</f>
         <v>hmsg_template_server-2</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>80</v>
@@ -5734,57 +5862,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
+    <row r="16" customFormat="1" spans="4:12">
+      <c r="D16" s="1"/>
+      <c r="E16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>E12</f>
+        <v>hmsg_template_server_line-1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="5:12">
+      <c r="E17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17" t="str">
+        <f>E9</f>
+        <v>hmsg_template_server-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21" t="s">
         <v>51</v>
       </c>
-      <c r="C17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8">
-      <c r="E18" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18">
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" ht="16" spans="5:8">
+      <c r="E22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8">
-      <c r="E19" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="16" spans="5:8">
+      <c r="E23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H23">
         <v>0</v>
       </c>
     </row>
@@ -5796,7 +5985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -5804,12 +5993,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
   <cols>
-    <col min="4" max="4" width="22.837037037037" customWidth="1"/>
-    <col min="5" max="5" width="23.1407407407407" customWidth="1"/>
-    <col min="6" max="6" width="21.1407407407407" customWidth="1"/>
-    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
+    <col min="4" max="4" width="22.8355263157895" customWidth="1"/>
+    <col min="5" max="5" width="23.1381578947368" customWidth="1"/>
+    <col min="6" max="6" width="21.1381578947368" customWidth="1"/>
+    <col min="8" max="8" width="14.7105263157895" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5839,125 +6028,125 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="J7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="K7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="N7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O7" t="s">
         <v>64</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="5:18">
       <c r="E8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="N8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="R8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>65</v>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -3056,10 +3056,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -3143,7 +3143,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3156,14 +3163,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3173,16 +3172,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3201,9 +3200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3211,9 +3210,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3233,6 +3232,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -3242,7 +3257,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3260,36 +3290,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3369,7 +3369,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,13 +3441,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3399,91 +3471,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3501,13 +3507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3519,37 +3531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3656,24 +3656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3685,30 +3667,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3739,6 +3697,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3753,152 +3735,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4643,8 +4643,8 @@
   <sheetPr/>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84868421052632" defaultRowHeight="15.2"/>
@@ -4890,9 +4890,6 @@
       <c r="J12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
       <c r="N12" s="7" t="s">
         <v>72</v>
       </c>
@@ -4925,9 +4922,6 @@
       <c r="J13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
       <c r="N13" s="7" t="s">
         <v>72</v>
       </c>
@@ -5563,8 +5557,8 @@
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -5868,8 +5862,8 @@
         <v>146</v>
       </c>
       <c r="F16" s="3" t="str">
-        <f>E12</f>
-        <v>hmsg_template_server_line-1</v>
+        <f>E8</f>
+        <v>hmsg_template_server-1</v>
       </c>
       <c r="G16" t="s">
         <v>147</v>
@@ -5878,8 +5872,6 @@
         <v>83</v>
       </c>
       <c r="I16" s="4"/>
-      <c r="J16"/>
-      <c r="K16"/>
       <c r="L16">
         <v>0</v>
       </c>
@@ -5898,9 +5890,6 @@
       <c r="H17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
       <c r="L17">
         <v>0</v>
       </c>

--- a/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_message/hzero-message.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="19420" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="182">
   <si>
     <r>
       <rPr>
@@ -2215,7 +2215,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
           查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -2528,7 +2528,7 @@
                               &lt;td align="center" vertical-align="middle" style="font-size:0px;padding:10px 25px;padding-top:60px;word-break:break-word;"&gt;
                                 &lt;table border="0" cellpadding="0" cellspacing="0" role="presentation" style="border-collapse:separate;width:212px;line-height:100%;"&gt;
                                   &lt;tbody&gt;&lt;tr&gt;
-                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#3f51b5;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
+                                    &lt;td align="center" bgcolor="#3f51b5" role="presentation" style="border:none;border-radius:3px;cursor:auto;height:20px;padding:10px 25px;background:#5365EA;" valign="middle"&gt; &lt;a href="${link}" style="background:#3f51b5;color:#ffffff;font-family:Ubuntu, Helvetica, Arial, sans-serif;font-size:13px;font-weight:normal;line-height:120%;Margin:0;text-decoration:none;text-transform:none;" target="_blank"&gt;
           查看详情
                                     &lt;/a&gt; &lt;/td&gt;
                                   &lt;/tr&gt;
@@ -3056,9 +3056,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
@@ -3119,12 +3119,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -3142,18 +3136,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3163,16 +3149,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3185,8 +3171,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3200,64 +3195,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3279,7 +3218,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3290,6 +3276,20 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3369,13 +3369,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3387,67 +3429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3471,7 +3459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3483,13 +3471,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3501,19 +3507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3525,31 +3519,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3566,28 +3566,12 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3612,12 +3596,21 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3626,13 +3619,11 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3647,12 +3638,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3671,37 +3682,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3739,8 +3724,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3749,158 +3734,173 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3955,112 +3955,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -4395,7 +4395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -4403,22 +4403,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5723684210526" style="18" customWidth="1"/>
-    <col min="2" max="2" width="10.2828947368421" style="19" customWidth="1"/>
-    <col min="3" max="3" width="28.1381578947368" customWidth="1"/>
-    <col min="4" max="4" width="35.2828947368421" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
-    <col min="6" max="6" width="23.4210526315789" customWidth="1"/>
-    <col min="7" max="7" width="21.5723684210526" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="18" customWidth="1"/>
+    <col min="2" max="2" width="10.2814814814815" style="19" customWidth="1"/>
+    <col min="3" max="3" width="28.1407407407407" customWidth="1"/>
+    <col min="4" max="4" width="35.2814814814815" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5723684210526" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1381578947368" customWidth="1"/>
-    <col min="12" max="12" width="18.5723684210526" customWidth="1"/>
-    <col min="13" max="13" width="13.1381578947368" customWidth="1"/>
-    <col min="14" max="1025" width="10.2828947368421" customWidth="1"/>
+    <col min="11" max="11" width="19.1407407407407" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.1407407407407" customWidth="1"/>
+    <col min="14" max="1025" width="10.2814814814815" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -4428,130 +4428,130 @@
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="5:5">
-      <c r="E2" s="35"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="23"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="39" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" ht="16" spans="3:7">
-      <c r="C4" s="23" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" ht="16" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" s="20"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="24" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" ht="46" spans="3:6">
-      <c r="C9" s="28" t="s">
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="38" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="46" spans="3:5">
-      <c r="C10" s="30" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="61" spans="3:5">
-      <c r="C11" s="26" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="3:5">
-      <c r="C12" s="26" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" ht="31" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="43" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4560,39 +4560,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="16" spans="3:5">
-      <c r="C19" s="33" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" ht="16" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="35" t="s">
+      <c r="D20" s="23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="45" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -4600,25 +4600,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="22"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" ht="31" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="47" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4639,28 +4639,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84868421052632" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="3" width="8.84868421052632" style="8"/>
-    <col min="4" max="4" width="21.5526315789474" style="8" customWidth="1"/>
-    <col min="5" max="5" width="23.8486842105263" style="8" customWidth="1"/>
-    <col min="6" max="6" width="46.3355263157895" style="8" customWidth="1"/>
-    <col min="7" max="7" width="27.6644736842105" style="8" customWidth="1"/>
-    <col min="8" max="8" width="28.5526315789474" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.8486842105263" style="8" customWidth="1"/>
-    <col min="10" max="10" width="22.1381578947368" style="8" customWidth="1"/>
-    <col min="11" max="11" width="25.1381578947368" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.5723684210526" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.1381578947368" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.84868421052632" style="8"/>
+    <col min="1" max="3" width="8.85185185185185" style="8"/>
+    <col min="4" max="4" width="21.5555555555556" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23.8518518518519" style="8" customWidth="1"/>
+    <col min="6" max="6" width="46.3333333333333" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.6666666666667" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28.5555555555556" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.8518518518519" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.1407407407407" style="8" customWidth="1"/>
+    <col min="11" max="11" width="25.1407407407407" style="8" customWidth="1"/>
+    <col min="12" max="12" width="14.5703703703704" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.1407407407407" style="8" customWidth="1"/>
+    <col min="14" max="16384" width="8.85185185185185" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5080,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16" spans="5:11">
+    <row r="21" spans="5:11">
       <c r="E21" s="8" t="s">
         <v>96</v>
       </c>
@@ -5553,29 +5553,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.7105263157895" customWidth="1"/>
-    <col min="3" max="3" width="16.2828947368421" customWidth="1"/>
-    <col min="4" max="4" width="21.1381578947368" customWidth="1"/>
+    <col min="1" max="1" width="15.7111111111111" customWidth="1"/>
+    <col min="3" max="3" width="16.2814814814815" customWidth="1"/>
+    <col min="4" max="4" width="21.1407407407407" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="30.7763157894737" customWidth="1"/>
-    <col min="7" max="7" width="11.7105263157895" customWidth="1"/>
-    <col min="8" max="8" width="42.7763157894737" customWidth="1"/>
-    <col min="9" max="9" width="30.4473684210526" customWidth="1"/>
-    <col min="10" max="10" width="20.2828947368421" customWidth="1"/>
-    <col min="11" max="11" width="13.5723684210526" customWidth="1"/>
-    <col min="12" max="12" width="13.7105263157895" customWidth="1"/>
-    <col min="13" max="13" width="23.5526315789474" customWidth="1"/>
-    <col min="14" max="14" width="12.5723684210526" customWidth="1"/>
+    <col min="6" max="6" width="30.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="11.7111111111111" customWidth="1"/>
+    <col min="8" max="8" width="42.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="30.4444444444444" customWidth="1"/>
+    <col min="10" max="10" width="20.2814814814815" customWidth="1"/>
+    <col min="11" max="11" width="13.5703703703704" customWidth="1"/>
+    <col min="12" max="12" width="13.7111111111111" customWidth="1"/>
+    <col min="13" max="13" width="23.5555555555556" customWidth="1"/>
+    <col min="14" max="14" width="12.5703703703704" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5771,7 +5771,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" ht="16" spans="4:12">
+    <row r="12" spans="4:12">
       <c r="D12" s="1"/>
       <c r="E12" s="5" t="s">
         <v>139</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="16" spans="5:12">
+    <row r="13" spans="5:12">
       <c r="E13" s="5" t="s">
         <v>141</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="16" spans="5:12">
+    <row r="14" spans="5:12">
       <c r="E14" s="5" t="s">
         <v>144</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="16" spans="5:12">
+    <row r="15" spans="5:12">
       <c r="E15" s="5" t="s">
         <v>145</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" ht="16" spans="5:8">
+    <row r="22" spans="5:8">
       <c r="E22" s="5" t="s">
         <v>153</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16" spans="5:8">
+    <row r="23" spans="5:8">
       <c r="E23" s="5" t="s">
         <v>154</v>
       </c>
@@ -5974,7 +5974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:R10"/>
   <sheetViews>
@@ -5982,12 +5982,12 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="4" max="4" width="22.8355263157895" customWidth="1"/>
-    <col min="5" max="5" width="23.1381578947368" customWidth="1"/>
-    <col min="6" max="6" width="21.1381578947368" customWidth="1"/>
-    <col min="8" max="8" width="14.7105263157895" customWidth="1"/>
+    <col min="4" max="4" width="22.837037037037" customWidth="1"/>
+    <col min="5" max="5" width="23.1407407407407" customWidth="1"/>
+    <col min="6" max="6" width="21.1407407407407" customWidth="1"/>
+    <col min="8" max="8" width="14.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
